--- a/reli_eng/fta/FTA木解析演習.xlsx
+++ b/reli_eng/fta/FTA木解析演習.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E296CB-AA57-44CB-BCE6-CE063F763288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1D1156-4F4C-440B-99F0-7AC40365357F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="1575" windowWidth="30435" windowHeight="18450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FTA木解析" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>↓詳細な事象を全て書きます</t>
     <rPh sb="1" eb="3">
@@ -194,17 +194,183 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>コネクタのゆるみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>半田不良</t>
+    <rPh sb="0" eb="4">
+      <t>ハンダフリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基盤汚染</t>
+    <rPh sb="0" eb="4">
+      <t>キバンオセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嵌合チェック</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>アイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配線が切れた</t>
+    <rPh sb="0" eb="2">
+      <t>ハイセン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハーネスの取り回し改善</t>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カイゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>断線検知ソフトの導入</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ドウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半田ひげ</t>
     <rPh sb="0" eb="2">
       <t>ハンダ</t>
     </rPh>
-    <rPh sb="2" eb="4">
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部品間に余裕を持たせる</t>
+    <rPh sb="0" eb="3">
+      <t>ブヒンカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨユウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC,TRCの故障</t>
+    <rPh sb="7" eb="9">
+      <t>コショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リレーの接点癒着</t>
+    <rPh sb="4" eb="6">
+      <t>セッテン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ユチャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソフトの不具合</t>
+    <rPh sb="4" eb="7">
+      <t>フグアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒータ制御のミス</t>
+    <rPh sb="3" eb="5">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突入電流・アーク</t>
+    <rPh sb="0" eb="4">
+      <t>トツニュウデンリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自動光学検査</t>
+    <rPh sb="0" eb="6">
+      <t>ジドウコウガクケンサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コードの見直し</t>
+    <rPh sb="4" eb="6">
+      <t>ミナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リレーの定格アップ</t>
+    <rPh sb="4" eb="6">
+      <t>テイカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーマルカットアウト不良</t>
+    <rPh sb="10" eb="12">
       <t>フリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PC、TRCの故障</t>
+    <t>定格過大・溶着</t>
+    <rPh sb="0" eb="2">
+      <t>テイカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウチャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>品質不良</t>
+    <rPh sb="0" eb="4">
+      <t>ヒンシツフリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入荷検査の徹底</t>
+    <rPh sb="0" eb="4">
+      <t>ニュウカケンサ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -212,7 +378,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,42 +519,39 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1381,6 +1544,39 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
+    <dgm:pt modelId="{193B3527-E9C3-497F-85EA-69050D02EF16}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DED68FF6-2B7D-448E-8057-451AF2D0181E}" type="sibTrans" cxnId="{2616D82E-B258-488A-AAD8-7AA575A827F4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A0605C6F-84D1-4E97-9BA0-2B489137D0AE}" type="parTrans" cxnId="{2616D82E-B258-488A-AAD8-7AA575A827F4}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
     <dgm:pt modelId="{C631C2BD-25F9-45EB-AA36-FAB60E37F686}">
       <dgm:prSet phldrT="[テキスト]"/>
       <dgm:spPr/>
@@ -1395,7 +1591,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{BBE22A03-C970-4163-80C0-A1927A1DB965}" type="parTrans" cxnId="{8CB9B551-CCC0-4FFB-9C40-616960D54197}">
+    <dgm:pt modelId="{6400B21C-0675-4B42-83E7-F4B747B88C0F}" type="sibTrans" cxnId="{8CB9B551-CCC0-4FFB-9C40-616960D54197}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1406,7 +1602,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{6400B21C-0675-4B42-83E7-F4B747B88C0F}" type="sibTrans" cxnId="{8CB9B551-CCC0-4FFB-9C40-616960D54197}">
+    <dgm:pt modelId="{BBE22A03-C970-4163-80C0-A1927A1DB965}" type="parTrans" cxnId="{8CB9B551-CCC0-4FFB-9C40-616960D54197}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1417,7 +1613,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{BEEFE57B-2DD1-41D2-958E-B94B33B7AF5F}">
+    <dgm:pt modelId="{1ECDD0A6-1311-46B1-A11B-C710DE19F6D8}">
       <dgm:prSet phldrT="[テキスト]"/>
       <dgm:spPr/>
       <dgm:t>
@@ -1425,17 +1621,13 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="en-US"/>
-            <a:t>Q204</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-            <a:t>が故障</a:t>
+            <a:t>正確な温度が読めない</a:t>
           </a:r>
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{2A0B8240-737D-4E0F-9491-882B31BA46F8}" type="parTrans" cxnId="{BFA76217-54B2-4DC5-A7A2-CD28A2EBB705}">
+    <dgm:pt modelId="{1D475FD8-479D-420E-9118-0D140A7D7090}" type="sibTrans" cxnId="{5007EE84-6726-43C1-9962-EDAB95C6EF12}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1446,7 +1638,79 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{CE971103-B4E7-4602-8414-6FF017927A64}" type="sibTrans" cxnId="{BFA76217-54B2-4DC5-A7A2-CD28A2EBB705}">
+    <dgm:pt modelId="{D3D1B553-E611-4401-8728-0221385BACB4}" type="parTrans" cxnId="{5007EE84-6726-43C1-9962-EDAB95C6EF12}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{74D848DB-07DE-45FC-98E3-A8D49F7C803A}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>半田不良</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{55EF18B6-1067-4A42-B9E5-9A7ACA4F9BAF}" type="sibTrans" cxnId="{87167932-F671-48DE-AC10-78BF4C5BA23A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B705EC36-F8A9-4CC0-8495-1FA2C4C75DD5}" type="parTrans" cxnId="{87167932-F671-48DE-AC10-78BF4C5BA23A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E7639B3F-0AB4-46DC-91FD-780D585A61B5}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>半田ひげ</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{1C8C75A3-2C92-490C-8343-11600F4332BD}" type="sibTrans" cxnId="{4B90627D-A871-439D-86CB-45E24B2E2FB5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D80DD8E3-08EE-4546-91EF-0E02B755920F}" type="parTrans" cxnId="{4B90627D-A871-439D-86CB-45E24B2E2FB5}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1483,7 +1747,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{E3FA4C6B-0C8C-4B77-89C4-C3BF8C3CB103}" type="parTrans" cxnId="{040BC406-2F13-469F-BA58-1FCA9AD80DD6}">
+    <dgm:pt modelId="{54F88F29-DB11-405D-AFD6-64DD5C7EF201}" type="sibTrans" cxnId="{040BC406-2F13-469F-BA58-1FCA9AD80DD6}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1494,7 +1758,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{54F88F29-DB11-405D-AFD6-64DD5C7EF201}" type="sibTrans" cxnId="{040BC406-2F13-469F-BA58-1FCA9AD80DD6}">
+    <dgm:pt modelId="{E3FA4C6B-0C8C-4B77-89C4-C3BF8C3CB103}" type="parTrans" cxnId="{040BC406-2F13-469F-BA58-1FCA9AD80DD6}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1505,8 +1769,22 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{193B3527-E9C3-497F-85EA-69050D02EF16}">
+    <dgm:pt modelId="{46117F56-8251-4476-954D-DB032E63AC4D}">
       <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>コネクタのゆるみ</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{64BD5905-9988-4D48-8147-09429C71C099}" type="parTrans" cxnId="{0094A593-1AA3-4C1D-A536-E8AFBA895F84}">
+      <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
         <a:bodyPr/>
@@ -1516,7 +1794,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{A0605C6F-84D1-4E97-9BA0-2B489137D0AE}" type="parTrans" cxnId="{2616D82E-B258-488A-AAD8-7AA575A827F4}">
+    <dgm:pt modelId="{776A3D96-6C25-4BF3-89AE-8F7118623717}" type="sibTrans" cxnId="{0094A593-1AA3-4C1D-A536-E8AFBA895F84}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1527,7 +1805,21 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{DED68FF6-2B7D-448E-8057-451AF2D0181E}" type="sibTrans" cxnId="{2616D82E-B258-488A-AAD8-7AA575A827F4}">
+    <dgm:pt modelId="{9C295D08-EDBA-4CCB-A17E-A1F4112E5BC1}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>ソフトの不具合</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DE37930C-AAA4-487C-A9FC-E5952740121C}" type="parTrans" cxnId="{2010BF3A-B69F-448A-A71D-19778A2C542D}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1538,21 +1830,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{1ECDD0A6-1311-46B1-A11B-C710DE19F6D8}">
-      <dgm:prSet phldrT="[テキスト]"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-            <a:t>正確な温度が読めない</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{D3D1B553-E611-4401-8728-0221385BACB4}" type="parTrans" cxnId="{5007EE84-6726-43C1-9962-EDAB95C6EF12}">
+    <dgm:pt modelId="{85E5655C-0B05-44A3-AAB5-831EDEB36D06}" type="sibTrans" cxnId="{2010BF3A-B69F-448A-A71D-19778A2C542D}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1563,7 +1841,21 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{1D475FD8-479D-420E-9118-0D140A7D7090}" type="sibTrans" cxnId="{5007EE84-6726-43C1-9962-EDAB95C6EF12}">
+    <dgm:pt modelId="{13959B3C-60DD-4D43-AE53-485E94F041DD}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>嵌合チェック</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5E500BB4-FD42-45EB-8EFA-733877DCFB4A}" type="parTrans" cxnId="{9ACCEEF6-15DF-4D95-A67A-B5276D54B0C0}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1574,21 +1866,7 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{74D848DB-07DE-45FC-98E3-A8D49F7C803A}">
-      <dgm:prSet phldrT="[テキスト]"/>
-      <dgm:spPr/>
-      <dgm:t>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-            <a:t>半田不良</a:t>
-          </a:r>
-        </a:p>
-      </dgm:t>
-    </dgm:pt>
-    <dgm:pt modelId="{B705EC36-F8A9-4CC0-8495-1FA2C4C75DD5}" type="parTrans" cxnId="{87167932-F671-48DE-AC10-78BF4C5BA23A}">
+    <dgm:pt modelId="{FC04884D-B3B7-45F4-A800-AAEC916CF235}" type="sibTrans" cxnId="{9ACCEEF6-15DF-4D95-A67A-B5276D54B0C0}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1599,7 +1877,675 @@
         </a:p>
       </dgm:t>
     </dgm:pt>
-    <dgm:pt modelId="{55EF18B6-1067-4A42-B9E5-9A7ACA4F9BAF}" type="sibTrans" cxnId="{87167932-F671-48DE-AC10-78BF4C5BA23A}">
+    <dgm:pt modelId="{BEEFE57B-2DD1-41D2-958E-B94B33B7AF5F}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="en-US"/>
+            <a:t>Q204</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>が故障</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CE971103-B4E7-4602-8414-6FF017927A64}" type="sibTrans" cxnId="{BFA76217-54B2-4DC5-A7A2-CD28A2EBB705}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2A0B8240-737D-4E0F-9491-882B31BA46F8}" type="parTrans" cxnId="{BFA76217-54B2-4DC5-A7A2-CD28A2EBB705}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B8EF4D80-B500-4AD9-8A1A-4464FCDC6393}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>部品間の隙間に余裕をもたせる</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{641EF105-8367-4BB2-BD1E-155CA31823F8}" type="parTrans" cxnId="{3F0D8B60-55BE-4AE4-8929-0A9D6E505854}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0C1931B5-E04D-48B7-91A1-811C5B08F192}" type="sibTrans" cxnId="{3F0D8B60-55BE-4AE4-8929-0A9D6E505854}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B5F1503A-7DA2-4501-8BA4-33E1F5BC7B08}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>コードの見直し</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DE27B65F-F99C-4CBF-8177-20604F5D624E}" type="parTrans" cxnId="{5ABF1862-1DB8-4A0B-B443-E014D422F738}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B0D58F6D-3674-459B-A44B-904AC65148C3}" type="sibTrans" cxnId="{5ABF1862-1DB8-4A0B-B443-E014D422F738}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{786AE425-9A43-4D97-BEE8-EE03DA061362}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>サーマルカットアウト不良</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A58D2854-0CE4-4FB6-9B57-27CC738E86E3}" type="parTrans" cxnId="{CA451D21-F8F3-4CFA-8749-A94191DB7D23}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CB896FDF-7EEF-4E25-9D3D-CD8E2E00C899}" type="sibTrans" cxnId="{CA451D21-F8F3-4CFA-8749-A94191DB7D23}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{92302666-A803-4820-A6ED-01874A1E6B28}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>定格過大・溶着</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C115AE81-C307-46DD-9CA3-43EDCE2FA6D4}" type="parTrans" cxnId="{F9AAE7CC-43E2-47B0-91F6-C6CD0A78A630}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A23006E2-BB9A-46D9-B4F0-F69D7769EF5E}" type="sibTrans" cxnId="{F9AAE7CC-43E2-47B0-91F6-C6CD0A78A630}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7994C439-D0A6-4027-960D-47C65D8CC093}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>ヒータ制御のミス</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{835C7D28-C6B8-4052-BD4E-E4C2ACC02E42}" type="parTrans" cxnId="{BE69D28D-B209-4A08-97CB-54123BB5A87A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5403B332-99A5-4B8F-9509-2975252300B5}" type="sibTrans" cxnId="{BE69D28D-B209-4A08-97CB-54123BB5A87A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5BC96C37-15FC-485C-B2DA-F32C40CF40DF}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>品質不良</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4FA74600-C614-47D9-91E3-A70D2516FC6A}" type="parTrans" cxnId="{C1110D6A-5238-4E20-A574-7D551781B070}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D5404566-CCDB-4253-80FF-337914496378}" type="sibTrans" cxnId="{C1110D6A-5238-4E20-A574-7D551781B070}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6E9CD1D8-C709-454C-B808-77761556B2F3}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>入荷検査の徹底</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B9C1118D-652A-4268-A2C3-E537B12ACBA5}" type="parTrans" cxnId="{C49D5E10-619F-4CAE-9D6B-81F01E4008F0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{865DE547-4BD1-42CE-8AEA-2D78066E38AD}" type="sibTrans" cxnId="{C49D5E10-619F-4CAE-9D6B-81F01E4008F0}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7B32A738-CDF6-4FC5-8516-49A960819AC0}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{3B56FCD2-82E8-476F-A32F-36FB8FF7CBA4}" type="parTrans" cxnId="{69048E57-633C-49FE-87AB-9B3AC0DADEED}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B4AB2AE6-3195-4C4E-A92A-668535359500}" type="sibTrans" cxnId="{69048E57-633C-49FE-87AB-9B3AC0DADEED}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5E1E617D-9106-4394-A431-26CA3D461400}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>リレーの接点癒着</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C9110F6B-BF5C-4D9E-B2D0-D7845903FAD0}" type="parTrans" cxnId="{913696A9-8D9B-485D-9B94-0FB4EA32503A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C64551C1-0947-4576-AC20-B976F8FFB66E}" type="sibTrans" cxnId="{913696A9-8D9B-485D-9B94-0FB4EA32503A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{11E37798-40CC-4864-9BD7-5F25B1321151}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>突入電流・アーク</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7D9C5205-6D78-401D-ABA0-E4092F6116B7}" type="parTrans" cxnId="{674C10B9-DBB0-4ED7-8D51-25528AD8BE66}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{32652527-DE43-490B-9CEC-C683A68A049B}" type="sibTrans" cxnId="{674C10B9-DBB0-4ED7-8D51-25528AD8BE66}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7FFB78FE-718D-4A9D-AC43-47D4777C6D18}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>リレーの定格アップ</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F281581D-8C8E-492B-AA76-5BDC2578CA86}" type="parTrans" cxnId="{B815729C-B9F3-4E9A-9ED3-AB3C7DBDC8CE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{50E394FA-551A-45AF-AD68-68A6EDD35999}" type="sibTrans" cxnId="{B815729C-B9F3-4E9A-9ED3-AB3C7DBDC8CE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{B0481A56-E7D1-4A08-B983-150F1C0A9D95}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{39798E30-D013-4C9B-9BC6-9E630671D61B}" type="parTrans" cxnId="{E58AEACE-2B48-460B-81C3-AD77F7A92912}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{10C9BB38-2D9F-4A44-9304-4DEA13E28956}" type="sibTrans" cxnId="{E58AEACE-2B48-460B-81C3-AD77F7A92912}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{BB0439F0-421E-4045-9418-2800638C8DAA}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>基盤汚染</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E5DFFEC2-1FCA-49B0-A9A7-2737738747F9}" type="parTrans" cxnId="{A80F3F64-1CAD-4281-ADED-7F6EC8B883A8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A7243E23-6FA4-4189-B1A9-21617F2E7888}" type="sibTrans" cxnId="{A80F3F64-1CAD-4281-ADED-7F6EC8B883A8}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{428F9133-E81E-4524-920F-F7737D0B9A22}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>自動光学検査</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{4E18F1D4-161C-467E-ACE8-73CDA29A4A4A}" type="parTrans" cxnId="{54AEA2E5-C747-4081-9D51-889DE59B4B08}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C8EB85E7-7C70-4D79-AE41-30B0755D0CA8}" type="sibTrans" cxnId="{54AEA2E5-C747-4081-9D51-889DE59B4B08}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0722F470-FFD8-41F3-AFF3-6693B7E1D53E}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7E04D793-A2AF-46B5-8072-78A39CED3265}" type="parTrans" cxnId="{DBAD2189-DC5D-45F9-94A6-47AE29CE9E7F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{0690908C-917C-413D-B7F8-7BE212E29E1B}" type="sibTrans" cxnId="{DBAD2189-DC5D-45F9-94A6-47AE29CE9E7F}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F2D4F08C-F5CA-4652-B583-140198E0DC3D}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>配線が切れた</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{225113F8-A9A4-42B8-BC1B-1D70F5EC219B}" type="parTrans" cxnId="{E39CBF7B-CC60-4933-8EDF-1E7E81A8260A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{46F36FB0-8AD3-42EE-AF99-47B6BEF482C1}" type="sibTrans" cxnId="{E39CBF7B-CC60-4933-8EDF-1E7E81A8260A}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{53C2F666-47BE-4846-8780-B62866D11957}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>ハーネスの取り回し改善</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{72ACBB6E-F170-4DFE-B84B-1D590DBA817D}" type="parTrans" cxnId="{DE6AB601-A103-4CC4-9FA1-E9DB2B9297D6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A098892D-B31B-42CC-A6D8-62C0E871BD97}" type="sibTrans" cxnId="{DE6AB601-A103-4CC4-9FA1-E9DB2B9297D6}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{7F9F2918-7D81-4087-A5D1-F4A6FADFDEC4}">
+      <dgm:prSet phldrT="[テキスト]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>断線検知ソフトの導入</a:t>
+          </a:r>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{A71CBFE6-68F8-428E-BCBF-01889D7158D5}" type="parTrans" cxnId="{B9727E9E-244E-49AD-908E-3BAB2B38D774}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{04FB5C54-1E15-4033-98D2-FA0911AF3822}" type="sibTrans" cxnId="{B9727E9E-244E-49AD-908E-3BAB2B38D774}">
       <dgm:prSet/>
       <dgm:spPr/>
       <dgm:t>
@@ -1688,7 +2634,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{209DE96E-1015-40B1-BA18-56D28784FF3D}" type="pres">
-      <dgm:prSet presAssocID="{BBE22A03-C970-4163-80C0-A1927A1DB965}" presName="Name64" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:prSet presAssocID="{BBE22A03-C970-4163-80C0-A1927A1DB965}" presName="Name64" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="4"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{99F3A429-8EE6-45EF-95C3-AC52348D4AE8}" type="pres">
@@ -1704,7 +2650,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{86EF3270-6B01-4E90-8816-870DDBBE0DDC}" type="pres">
-      <dgm:prSet presAssocID="{C631C2BD-25F9-45EB-AA36-FAB60E37F686}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="3">
+      <dgm:prSet presAssocID="{C631C2BD-25F9-45EB-AA36-FAB60E37F686}" presName="rootText" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="4">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1712,7 +2658,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6C4A8901-7CD8-43E0-8082-C115BA9BD358}" type="pres">
-      <dgm:prSet presAssocID="{C631C2BD-25F9-45EB-AA36-FAB60E37F686}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="3"/>
+      <dgm:prSet presAssocID="{C631C2BD-25F9-45EB-AA36-FAB60E37F686}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="4"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C34F42A3-D5C6-44C0-86B9-F16CC3F049D5}" type="pres">
@@ -1720,7 +2666,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C3BD116C-1817-4A53-8EDB-CDE93F2F3045}" type="pres">
-      <dgm:prSet presAssocID="{D3D1B553-E611-4401-8728-0221385BACB4}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:prSet presAssocID="{D3D1B553-E611-4401-8728-0221385BACB4}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="0" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F8BD8644-DE80-40A3-973B-FAA3280B41A2}" type="pres">
@@ -1736,7 +2682,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C7986F6E-1551-4615-8D4F-0F7A442E779A}" type="pres">
-      <dgm:prSet presAssocID="{1ECDD0A6-1311-46B1-A11B-C710DE19F6D8}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="2" custScaleX="136605">
+      <dgm:prSet presAssocID="{1ECDD0A6-1311-46B1-A11B-C710DE19F6D8}" presName="rootText" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="23" custScaleX="136605">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1744,13 +2690,233 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C7F5875F-041A-4975-B981-3ECDCE1DF5AB}" type="pres">
-      <dgm:prSet presAssocID="{1ECDD0A6-1311-46B1-A11B-C710DE19F6D8}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="2"/>
+      <dgm:prSet presAssocID="{1ECDD0A6-1311-46B1-A11B-C710DE19F6D8}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="0" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{0F131A5C-B6EE-4822-BB3F-E7160B939B23}" type="pres">
       <dgm:prSet presAssocID="{1ECDD0A6-1311-46B1-A11B-C710DE19F6D8}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{C21B5B44-6117-4EBB-AF38-323E29F5036C}" type="pres">
+      <dgm:prSet presAssocID="{7E04D793-A2AF-46B5-8072-78A39CED3265}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{05091EB3-055B-4BFF-B0F5-28782BD09CEE}" type="pres">
+      <dgm:prSet presAssocID="{0722F470-FFD8-41F3-AFF3-6693B7E1D53E}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8D2850F3-6F1F-4180-AC25-4AB1A0CC917C}" type="pres">
+      <dgm:prSet presAssocID="{0722F470-FFD8-41F3-AFF3-6693B7E1D53E}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1699E2A8-5A9E-47AC-85DF-6652FE6F8577}" type="pres">
+      <dgm:prSet presAssocID="{0722F470-FFD8-41F3-AFF3-6693B7E1D53E}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="23" custAng="10800000" custScaleX="29365">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+      </dgm:spPr>
+    </dgm:pt>
+    <dgm:pt modelId="{4A3CA3E2-7122-4426-AA91-687479A98091}" type="pres">
+      <dgm:prSet presAssocID="{0722F470-FFD8-41F3-AFF3-6693B7E1D53E}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{405D4AC9-37EB-4D30-92F1-8B64FB85E1DF}" type="pres">
+      <dgm:prSet presAssocID="{0722F470-FFD8-41F3-AFF3-6693B7E1D53E}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{78FA4EB2-C740-4BBC-9FFC-76050AAFE025}" type="pres">
+      <dgm:prSet presAssocID="{64BD5905-9988-4D48-8147-09429C71C099}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="2" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B9E9508E-190E-41DE-804E-AD369DD9EEB5}" type="pres">
+      <dgm:prSet presAssocID="{46117F56-8251-4476-954D-DB032E63AC4D}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B5F36C7F-3F38-423E-A816-5B0A50FC3264}" type="pres">
+      <dgm:prSet presAssocID="{46117F56-8251-4476-954D-DB032E63AC4D}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EA9CF248-1326-4D78-93B7-B6131A505245}" type="pres">
+      <dgm:prSet presAssocID="{46117F56-8251-4476-954D-DB032E63AC4D}" presName="rootText" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F2D3DEEF-7DB1-4016-A644-DF8F36D836B3}" type="pres">
+      <dgm:prSet presAssocID="{46117F56-8251-4476-954D-DB032E63AC4D}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="2" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{85AF25AD-5DDB-49B9-A680-8E4D2A379BA0}" type="pres">
+      <dgm:prSet presAssocID="{46117F56-8251-4476-954D-DB032E63AC4D}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0A0201AE-DC6E-4496-BC04-9B70273029D7}" type="pres">
+      <dgm:prSet presAssocID="{5E500BB4-FD42-45EB-8EFA-733877DCFB4A}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="3" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{60EE68E3-5196-44F7-9CE9-1BEA668C32B8}" type="pres">
+      <dgm:prSet presAssocID="{13959B3C-60DD-4D43-AE53-485E94F041DD}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{82E43FA5-7458-4CE4-AF9E-47F7A7D2A602}" type="pres">
+      <dgm:prSet presAssocID="{13959B3C-60DD-4D43-AE53-485E94F041DD}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1EE4D16C-87AD-4009-B8DD-9C2E06E7DCB6}" type="pres">
+      <dgm:prSet presAssocID="{13959B3C-60DD-4D43-AE53-485E94F041DD}" presName="rootText" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0845A3F2-CFB1-4D60-A512-37FA7B5D01E6}" type="pres">
+      <dgm:prSet presAssocID="{13959B3C-60DD-4D43-AE53-485E94F041DD}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="3" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6F660F97-42BA-4C15-9D36-D56B79EA78DF}" type="pres">
+      <dgm:prSet presAssocID="{13959B3C-60DD-4D43-AE53-485E94F041DD}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8033AAD9-9427-404E-B2FF-243128106478}" type="pres">
+      <dgm:prSet presAssocID="{13959B3C-60DD-4D43-AE53-485E94F041DD}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4E4220B2-F130-45FD-88A7-B91AEC686EBA}" type="pres">
+      <dgm:prSet presAssocID="{46117F56-8251-4476-954D-DB032E63AC4D}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{46043C73-4888-4602-8DCD-83A8473312AC}" type="pres">
+      <dgm:prSet presAssocID="{225113F8-A9A4-42B8-BC1B-1D70F5EC219B}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="4" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3C98E31A-ED32-490A-AA42-DD7096F4A650}" type="pres">
+      <dgm:prSet presAssocID="{F2D4F08C-F5CA-4652-B583-140198E0DC3D}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A7C9BAA4-5383-43F8-8786-DFCCFEF2DDAB}" type="pres">
+      <dgm:prSet presAssocID="{F2D4F08C-F5CA-4652-B583-140198E0DC3D}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0EC762FC-3818-4D5C-83FA-2C288DEC922A}" type="pres">
+      <dgm:prSet presAssocID="{F2D4F08C-F5CA-4652-B583-140198E0DC3D}" presName="rootText" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B1527268-7486-4DA1-AB84-E86962E1F0C6}" type="pres">
+      <dgm:prSet presAssocID="{F2D4F08C-F5CA-4652-B583-140198E0DC3D}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="4" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{44BFAE8B-8DEE-4122-B701-A7F79A44E744}" type="pres">
+      <dgm:prSet presAssocID="{F2D4F08C-F5CA-4652-B583-140198E0DC3D}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A32F1A5C-2163-4EB3-8994-D50D92C78FCE}" type="pres">
+      <dgm:prSet presAssocID="{72ACBB6E-F170-4DFE-B84B-1D590DBA817D}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="5" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{65F9E682-C93E-424E-88BA-AE598951864A}" type="pres">
+      <dgm:prSet presAssocID="{53C2F666-47BE-4846-8780-B62866D11957}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4F67D09F-F94F-4B34-A50A-DE2314AF3CA6}" type="pres">
+      <dgm:prSet presAssocID="{53C2F666-47BE-4846-8780-B62866D11957}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7C91DE38-9297-4511-A949-19D838A226D0}" type="pres">
+      <dgm:prSet presAssocID="{53C2F666-47BE-4846-8780-B62866D11957}" presName="rootText" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{9451DAD1-D6C3-4809-AFA5-BCDEC0F46B16}" type="pres">
+      <dgm:prSet presAssocID="{53C2F666-47BE-4846-8780-B62866D11957}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="5" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A0E6BA99-13BA-4C21-9C69-5267C87B0FFC}" type="pres">
+      <dgm:prSet presAssocID="{53C2F666-47BE-4846-8780-B62866D11957}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0969F92A-E721-4F62-BD70-D7A3806F4A14}" type="pres">
+      <dgm:prSet presAssocID="{53C2F666-47BE-4846-8780-B62866D11957}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{76FA466F-C5B0-4A10-804C-FFE56D7A1302}" type="pres">
+      <dgm:prSet presAssocID="{A71CBFE6-68F8-428E-BCBF-01889D7158D5}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="6" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4C32DD85-78A6-4BE2-A186-2D87B64AD8B3}" type="pres">
+      <dgm:prSet presAssocID="{7F9F2918-7D81-4087-A5D1-F4A6FADFDEC4}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0E4F91C3-60A3-4A70-B08A-B62DEEAA981C}" type="pres">
+      <dgm:prSet presAssocID="{7F9F2918-7D81-4087-A5D1-F4A6FADFDEC4}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AE0D25CC-4F1E-419E-A353-038B4273A6E1}" type="pres">
+      <dgm:prSet presAssocID="{7F9F2918-7D81-4087-A5D1-F4A6FADFDEC4}" presName="rootText" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{105F5FAB-84D8-4CE6-BFC5-C689CCD8322E}" type="pres">
+      <dgm:prSet presAssocID="{7F9F2918-7D81-4087-A5D1-F4A6FADFDEC4}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="6" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{009DFC79-0892-4468-8814-23B38935C14F}" type="pres">
+      <dgm:prSet presAssocID="{7F9F2918-7D81-4087-A5D1-F4A6FADFDEC4}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{91F05EEC-235E-4B0F-80E1-727C9D37C6CD}" type="pres">
+      <dgm:prSet presAssocID="{7F9F2918-7D81-4087-A5D1-F4A6FADFDEC4}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7F180507-1EA5-44E7-B209-23B675D16C20}" type="pres">
+      <dgm:prSet presAssocID="{F2D4F08C-F5CA-4652-B583-140198E0DC3D}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BF86333B-B8C3-4BAA-9928-20F292E41197}" type="pres">
+      <dgm:prSet presAssocID="{0722F470-FFD8-41F3-AFF3-6693B7E1D53E}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{4D6BDA38-EA72-45E0-B667-1FEAE84364A4}" type="pres">
       <dgm:prSet presAssocID="{1ECDD0A6-1311-46B1-A11B-C710DE19F6D8}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
@@ -1760,7 +2926,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{5EF519EB-1802-4A4D-8D27-D2FF707A0802}" type="pres">
-      <dgm:prSet presAssocID="{2A0B8240-737D-4E0F-9491-882B31BA46F8}" presName="Name64" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:prSet presAssocID="{2A0B8240-737D-4E0F-9491-882B31BA46F8}" presName="Name64" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="4"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{F6899F8E-3EAE-4B37-A43C-9966D6A391E3}" type="pres">
@@ -1776,7 +2942,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{D88FF544-3D4E-43F8-B304-3B7FFB9916E6}" type="pres">
-      <dgm:prSet presAssocID="{BEEFE57B-2DD1-41D2-958E-B94B33B7AF5F}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="3">
+      <dgm:prSet presAssocID="{BEEFE57B-2DD1-41D2-958E-B94B33B7AF5F}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="4">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1784,7 +2950,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{9BCBC157-0737-4793-AFE7-099BC047BA8F}" type="pres">
-      <dgm:prSet presAssocID="{BEEFE57B-2DD1-41D2-958E-B94B33B7AF5F}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="3"/>
+      <dgm:prSet presAssocID="{BEEFE57B-2DD1-41D2-958E-B94B33B7AF5F}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="4"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{99A3E8FB-C1EC-43C4-A9FF-840865AA03FF}" type="pres">
@@ -1792,7 +2958,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{78177F2E-AD9E-4A65-83F3-5F5357869156}" type="pres">
-      <dgm:prSet presAssocID="{B705EC36-F8A9-4CC0-8495-1FA2C4C75DD5}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:prSet presAssocID="{B705EC36-F8A9-4CC0-8495-1FA2C4C75DD5}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="7" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{AFEE0EB9-9C9E-4B93-A7EA-86182616DE72}" type="pres">
@@ -1808,7 +2974,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1BDA86ED-1897-4B23-9AC8-2E1653736DF6}" type="pres">
-      <dgm:prSet presAssocID="{74D848DB-07DE-45FC-98E3-A8D49F7C803A}" presName="rootText" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="2">
+      <dgm:prSet presAssocID="{74D848DB-07DE-45FC-98E3-A8D49F7C803A}" presName="rootText" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="23">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1816,13 +2982,197 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{C9C96607-9FCC-44CC-89FC-B910672091C3}" type="pres">
-      <dgm:prSet presAssocID="{74D848DB-07DE-45FC-98E3-A8D49F7C803A}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="1" presStyleCnt="2"/>
+      <dgm:prSet presAssocID="{74D848DB-07DE-45FC-98E3-A8D49F7C803A}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="7" presStyleCnt="23"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1F433686-0AF4-44A7-907C-3B7322524B0F}" type="pres">
       <dgm:prSet presAssocID="{74D848DB-07DE-45FC-98E3-A8D49F7C803A}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
+    <dgm:pt modelId="{B60AA2C4-9DA1-4CD4-B2A3-C1DE9E1BCB6B}" type="pres">
+      <dgm:prSet presAssocID="{39798E30-D013-4C9B-9BC6-9E630671D61B}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="8" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DEED29F1-72A8-4452-980D-5B526A637916}" type="pres">
+      <dgm:prSet presAssocID="{B0481A56-E7D1-4A08-B983-150F1C0A9D95}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1615A14E-B267-42EB-BE5A-6A5AB93F65B0}" type="pres">
+      <dgm:prSet presAssocID="{B0481A56-E7D1-4A08-B983-150F1C0A9D95}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B6FA964F-3D30-4FD3-968F-24D5819581E3}" type="pres">
+      <dgm:prSet presAssocID="{B0481A56-E7D1-4A08-B983-150F1C0A9D95}" presName="rootText" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="23" custAng="10800000" custScaleX="29365">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+      </dgm:spPr>
+    </dgm:pt>
+    <dgm:pt modelId="{44873741-CFDD-4C8A-9393-6162B182C7D6}" type="pres">
+      <dgm:prSet presAssocID="{B0481A56-E7D1-4A08-B983-150F1C0A9D95}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="8" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6A36723B-053E-40D0-BB9A-1171E7456D28}" type="pres">
+      <dgm:prSet presAssocID="{B0481A56-E7D1-4A08-B983-150F1C0A9D95}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8ABDE085-19CC-4E6F-9BAC-337B08F0615B}" type="pres">
+      <dgm:prSet presAssocID="{D80DD8E3-08EE-4546-91EF-0E02B755920F}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="9" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AEC07E64-E994-45BD-B052-D8A30CD7C0A1}" type="pres">
+      <dgm:prSet presAssocID="{E7639B3F-0AB4-46DC-91FD-780D585A61B5}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AC996033-DA73-4637-B83F-6C31222B002B}" type="pres">
+      <dgm:prSet presAssocID="{E7639B3F-0AB4-46DC-91FD-780D585A61B5}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{949DB9AE-6468-4D7F-87A8-CAF43BE3CE1A}" type="pres">
+      <dgm:prSet presAssocID="{E7639B3F-0AB4-46DC-91FD-780D585A61B5}" presName="rootText" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{08C7C3E6-B534-4D17-B065-5A84B7C7EFB5}" type="pres">
+      <dgm:prSet presAssocID="{E7639B3F-0AB4-46DC-91FD-780D585A61B5}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="9" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{891DFB1F-13E5-4069-A96B-DE648ECD6F48}" type="pres">
+      <dgm:prSet presAssocID="{E7639B3F-0AB4-46DC-91FD-780D585A61B5}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{179EE195-1920-48C5-B1CA-55D03C134608}" type="pres">
+      <dgm:prSet presAssocID="{641EF105-8367-4BB2-BD1E-155CA31823F8}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="10" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{ECDD328E-90C1-4448-9737-E48FD53DE2D2}" type="pres">
+      <dgm:prSet presAssocID="{B8EF4D80-B500-4AD9-8A1A-4464FCDC6393}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0A5B7055-80A2-4EF6-8CDE-E13AD52F1A8E}" type="pres">
+      <dgm:prSet presAssocID="{B8EF4D80-B500-4AD9-8A1A-4464FCDC6393}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{73C82DDF-A03E-4FFD-B7EC-E1E2865E713A}" type="pres">
+      <dgm:prSet presAssocID="{B8EF4D80-B500-4AD9-8A1A-4464FCDC6393}" presName="rootText" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{E84C4F87-F474-42CB-AF68-121C3BAE9959}" type="pres">
+      <dgm:prSet presAssocID="{B8EF4D80-B500-4AD9-8A1A-4464FCDC6393}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="10" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8CC054B8-7913-44F6-B7BF-FF26FF7A8A02}" type="pres">
+      <dgm:prSet presAssocID="{B8EF4D80-B500-4AD9-8A1A-4464FCDC6393}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F7188721-6110-4BF6-AC05-3F16AC4F1DDD}" type="pres">
+      <dgm:prSet presAssocID="{B8EF4D80-B500-4AD9-8A1A-4464FCDC6393}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4ED2D7B0-5799-4E72-AADE-480E91C6E9C9}" type="pres">
+      <dgm:prSet presAssocID="{E7639B3F-0AB4-46DC-91FD-780D585A61B5}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1A84F7CD-9CB3-4B64-84E8-08EFCAC3BDAC}" type="pres">
+      <dgm:prSet presAssocID="{E5DFFEC2-1FCA-49B0-A9A7-2737738747F9}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="11" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{64B10AC8-9509-40B7-8526-4DF6E0499840}" type="pres">
+      <dgm:prSet presAssocID="{BB0439F0-421E-4045-9418-2800638C8DAA}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{14B21809-B1C0-4D52-921A-157202435682}" type="pres">
+      <dgm:prSet presAssocID="{BB0439F0-421E-4045-9418-2800638C8DAA}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6238D206-D2C6-4CE5-ABD9-2EE4394F3F04}" type="pres">
+      <dgm:prSet presAssocID="{BB0439F0-421E-4045-9418-2800638C8DAA}" presName="rootText" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4B742D7F-CD85-4F18-862C-2BFF99B3E389}" type="pres">
+      <dgm:prSet presAssocID="{BB0439F0-421E-4045-9418-2800638C8DAA}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="11" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5A48B1A1-EFA4-4EA4-ACA1-6A4E9172249B}" type="pres">
+      <dgm:prSet presAssocID="{BB0439F0-421E-4045-9418-2800638C8DAA}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C4052DBF-2137-43AC-93A3-BD204E667926}" type="pres">
+      <dgm:prSet presAssocID="{4E18F1D4-161C-467E-ACE8-73CDA29A4A4A}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="12" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{504E6784-6571-4C2F-B1C2-502FC07F95AC}" type="pres">
+      <dgm:prSet presAssocID="{428F9133-E81E-4524-920F-F7737D0B9A22}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4DDA2DF4-469D-4934-9F99-C9903422FFF5}" type="pres">
+      <dgm:prSet presAssocID="{428F9133-E81E-4524-920F-F7737D0B9A22}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F618EC52-C31D-44C8-BCA5-8EE22083699F}" type="pres">
+      <dgm:prSet presAssocID="{428F9133-E81E-4524-920F-F7737D0B9A22}" presName="rootText" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{34A73D86-0FB3-465B-83CD-E581BA5049DD}" type="pres">
+      <dgm:prSet presAssocID="{428F9133-E81E-4524-920F-F7737D0B9A22}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="12" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{2AD85ABE-C405-41A5-813A-45F38151089C}" type="pres">
+      <dgm:prSet presAssocID="{428F9133-E81E-4524-920F-F7737D0B9A22}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D67FBAB5-FFBE-4407-953B-5F4BF0F7A9F8}" type="pres">
+      <dgm:prSet presAssocID="{428F9133-E81E-4524-920F-F7737D0B9A22}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{283E4E31-970F-40CF-B01A-1B66A2687CFE}" type="pres">
+      <dgm:prSet presAssocID="{BB0439F0-421E-4045-9418-2800638C8DAA}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6E6F76FD-515B-4BEE-89A8-24643637DC88}" type="pres">
+      <dgm:prSet presAssocID="{B0481A56-E7D1-4A08-B983-150F1C0A9D95}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
     <dgm:pt modelId="{3F2283B0-0926-4F55-B8D2-BDC1C868F1B9}" type="pres">
       <dgm:prSet presAssocID="{74D848DB-07DE-45FC-98E3-A8D49F7C803A}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
@@ -1831,11 +3181,11 @@
       <dgm:prSet presAssocID="{BEEFE57B-2DD1-41D2-958E-B94B33B7AF5F}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{D9D3E950-2D7F-4FCA-B3F3-527543935621}" type="pres">
-      <dgm:prSet presAssocID="{E3FA4C6B-0C8C-4B77-89C4-C3BF8C3CB103}" presName="Name64" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="3"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{7D097734-7889-43A0-91E8-43B7B3EB5ED9}" type="pres">
+    <dgm:pt modelId="{D14210F5-30C8-48BB-84DB-BA975CC146C4}" type="pres">
+      <dgm:prSet presAssocID="{E3FA4C6B-0C8C-4B77-89C4-C3BF8C3CB103}" presName="Name64" presStyleLbl="parChTrans1D3" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{84521016-5258-473E-B386-5EB05AF5C2FE}" type="pres">
       <dgm:prSet presAssocID="{F27F4D8B-5BCB-4150-948F-4F48C4348B1F}" presName="hierRoot2" presStyleCnt="0">
         <dgm:presLayoutVars>
           <dgm:hierBranch val="init"/>
@@ -1843,28 +3193,428 @@
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{B77FB223-514F-4F83-A9E2-6D9217530642}" type="pres">
+    <dgm:pt modelId="{93F30BE2-A77D-4EF1-B723-AE98958ADF49}" type="pres">
       <dgm:prSet presAssocID="{F27F4D8B-5BCB-4150-948F-4F48C4348B1F}" presName="rootComposite" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{7F19217E-24B3-4627-9072-890E7C39ABC3}" type="pres">
-      <dgm:prSet presAssocID="{F27F4D8B-5BCB-4150-948F-4F48C4348B1F}" presName="rootText" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="3">
+    <dgm:pt modelId="{F9A45FA4-F784-4208-A7DD-73336ED69A23}" type="pres">
+      <dgm:prSet presAssocID="{F27F4D8B-5BCB-4150-948F-4F48C4348B1F}" presName="rootText" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="4">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{01D0391F-94CF-47E1-B3D5-F4A9470F84F9}" type="pres">
-      <dgm:prSet presAssocID="{F27F4D8B-5BCB-4150-948F-4F48C4348B1F}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="3"/>
-      <dgm:spPr/>
-    </dgm:pt>
-    <dgm:pt modelId="{7A09A7A5-7956-4EF4-BA49-D8CDF9E58E5B}" type="pres">
+    <dgm:pt modelId="{ADF48975-9CCC-489E-94FD-23C8EC190236}" type="pres">
+      <dgm:prSet presAssocID="{F27F4D8B-5BCB-4150-948F-4F48C4348B1F}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="2" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{32BA3E3C-E5B7-425F-A6DF-07E24157B505}" type="pres">
       <dgm:prSet presAssocID="{F27F4D8B-5BCB-4150-948F-4F48C4348B1F}" presName="hierChild4" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
-    <dgm:pt modelId="{D90C9060-693F-40CF-BD65-BDCC7D00B8BA}" type="pres">
+    <dgm:pt modelId="{E86CB141-D692-4609-9934-2848921A7000}" type="pres">
+      <dgm:prSet presAssocID="{3B56FCD2-82E8-476F-A32F-36FB8FF7CBA4}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="13" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{92318C9B-99C9-4C0C-A69F-834EDF0FDA68}" type="pres">
+      <dgm:prSet presAssocID="{7B32A738-CDF6-4FC5-8516-49A960819AC0}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{77D3A474-2DD1-4666-81EF-D518554B28D3}" type="pres">
+      <dgm:prSet presAssocID="{7B32A738-CDF6-4FC5-8516-49A960819AC0}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BA6FAB83-0215-476D-8AC7-A769045344E0}" type="pres">
+      <dgm:prSet presAssocID="{7B32A738-CDF6-4FC5-8516-49A960819AC0}" presName="rootText" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="23" custAng="10800000" custScaleX="29365">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+      </dgm:spPr>
+    </dgm:pt>
+    <dgm:pt modelId="{6104CD32-A354-4371-9BB8-FB13B0010254}" type="pres">
+      <dgm:prSet presAssocID="{7B32A738-CDF6-4FC5-8516-49A960819AC0}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="13" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0E69FD50-F033-467A-916D-8BC4A82BBE78}" type="pres">
+      <dgm:prSet presAssocID="{7B32A738-CDF6-4FC5-8516-49A960819AC0}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DD6B7609-EC73-4682-A39F-3F0CEDC61B72}" type="pres">
+      <dgm:prSet presAssocID="{DE37930C-AAA4-487C-A9FC-E5952740121C}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="14" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{048CF0A2-3532-4E5E-BDC7-8EF1EAB286F5}" type="pres">
+      <dgm:prSet presAssocID="{9C295D08-EDBA-4CCB-A17E-A1F4112E5BC1}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{74FB75DE-CB49-44CD-82C2-F07E96CF7402}" type="pres">
+      <dgm:prSet presAssocID="{9C295D08-EDBA-4CCB-A17E-A1F4112E5BC1}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AD6CB5E3-57B9-4F99-B7AB-3BFD9AE1B26D}" type="pres">
+      <dgm:prSet presAssocID="{9C295D08-EDBA-4CCB-A17E-A1F4112E5BC1}" presName="rootText" presStyleLbl="node4" presStyleIdx="14" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D7BDD4D1-1943-4712-B232-8C9C11250DAE}" type="pres">
+      <dgm:prSet presAssocID="{9C295D08-EDBA-4CCB-A17E-A1F4112E5BC1}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="14" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7574F575-4479-4BAD-BC0D-1E5F767B8703}" type="pres">
+      <dgm:prSet presAssocID="{9C295D08-EDBA-4CCB-A17E-A1F4112E5BC1}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{91603FE8-5AA5-4A12-9803-418FD270BD4F}" type="pres">
+      <dgm:prSet presAssocID="{835C7D28-C6B8-4052-BD4E-E4C2ACC02E42}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="15" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5CD664B4-6224-4FAA-81B3-56B61594665D}" type="pres">
+      <dgm:prSet presAssocID="{7994C439-D0A6-4027-960D-47C65D8CC093}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8F2ED90F-340A-4D0E-9677-2608E66090B1}" type="pres">
+      <dgm:prSet presAssocID="{7994C439-D0A6-4027-960D-47C65D8CC093}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{41FB21E8-11C1-4A21-B02D-5C6C7711348B}" type="pres">
+      <dgm:prSet presAssocID="{7994C439-D0A6-4027-960D-47C65D8CC093}" presName="rootText" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FA3FC84A-D6E0-4208-9D75-0DF97CE1083D}" type="pres">
+      <dgm:prSet presAssocID="{7994C439-D0A6-4027-960D-47C65D8CC093}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="15" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{FF91E0B8-F459-49CD-89E1-27A279122112}" type="pres">
+      <dgm:prSet presAssocID="{7994C439-D0A6-4027-960D-47C65D8CC093}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CCE2EC36-F7D9-4A57-8038-7183AD7CC22D}" type="pres">
+      <dgm:prSet presAssocID="{DE27B65F-F99C-4CBF-8177-20604F5D624E}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="16" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{33F0BB4F-C19B-4454-93CD-9278D131E8DC}" type="pres">
+      <dgm:prSet presAssocID="{B5F1503A-7DA2-4501-8BA4-33E1F5BC7B08}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F881BBB0-56E3-4403-AE1D-F1D786F58F48}" type="pres">
+      <dgm:prSet presAssocID="{B5F1503A-7DA2-4501-8BA4-33E1F5BC7B08}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C7C7924E-4E6A-4FA0-A458-EC98FAA31C5E}" type="pres">
+      <dgm:prSet presAssocID="{B5F1503A-7DA2-4501-8BA4-33E1F5BC7B08}" presName="rootText" presStyleLbl="node4" presStyleIdx="16" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{B38A7FCD-5210-4B4D-A200-3FBE7C43A5D5}" type="pres">
+      <dgm:prSet presAssocID="{B5F1503A-7DA2-4501-8BA4-33E1F5BC7B08}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="16" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5DA8153F-6B90-4D28-B5B2-5A11F38B72D1}" type="pres">
+      <dgm:prSet presAssocID="{B5F1503A-7DA2-4501-8BA4-33E1F5BC7B08}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5BDCA1C0-0873-4DB1-82B9-D2384C1D75C7}" type="pres">
+      <dgm:prSet presAssocID="{B5F1503A-7DA2-4501-8BA4-33E1F5BC7B08}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{27D2F593-F1F3-4118-B26C-7EF91D6F0730}" type="pres">
+      <dgm:prSet presAssocID="{7994C439-D0A6-4027-960D-47C65D8CC093}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{965BDDA9-41A7-4BDA-A1DF-BBEF8A9F8C80}" type="pres">
+      <dgm:prSet presAssocID="{9C295D08-EDBA-4CCB-A17E-A1F4112E5BC1}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8E5479D3-6365-414D-8D83-1AF889A1ED7B}" type="pres">
+      <dgm:prSet presAssocID="{C9110F6B-BF5C-4D9E-B2D0-D7845903FAD0}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="17" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{1F5019E3-0698-443A-903E-BDACC2DB220F}" type="pres">
+      <dgm:prSet presAssocID="{5E1E617D-9106-4394-A431-26CA3D461400}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3BC82133-FA78-4485-B07A-9891FC620252}" type="pres">
+      <dgm:prSet presAssocID="{5E1E617D-9106-4394-A431-26CA3D461400}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{39F25024-737A-44B1-BB3A-23B27A7666B4}" type="pres">
+      <dgm:prSet presAssocID="{5E1E617D-9106-4394-A431-26CA3D461400}" presName="rootText" presStyleLbl="node4" presStyleIdx="17" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{08DB4AF9-8E42-40AA-84E5-CADFA71299D7}" type="pres">
+      <dgm:prSet presAssocID="{5E1E617D-9106-4394-A431-26CA3D461400}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="17" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0E19289A-B973-47ED-9615-375DCE2310F1}" type="pres">
+      <dgm:prSet presAssocID="{5E1E617D-9106-4394-A431-26CA3D461400}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{25B82283-2ED9-4A56-AF93-B32A3D3DEEEC}" type="pres">
+      <dgm:prSet presAssocID="{7D9C5205-6D78-401D-ABA0-E4092F6116B7}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="18" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7309439D-744A-40AB-8FBE-AC0FCB0BF5EB}" type="pres">
+      <dgm:prSet presAssocID="{11E37798-40CC-4864-9BD7-5F25B1321151}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{6BD14D70-61F5-4AF3-9DCC-25DBEB89BAB7}" type="pres">
+      <dgm:prSet presAssocID="{11E37798-40CC-4864-9BD7-5F25B1321151}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AAF151B6-8F38-4316-93CE-21EBF0ACEE82}" type="pres">
+      <dgm:prSet presAssocID="{11E37798-40CC-4864-9BD7-5F25B1321151}" presName="rootText" presStyleLbl="node4" presStyleIdx="18" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{91FA7B8D-26D1-4173-8A38-13ACD0E6A69F}" type="pres">
+      <dgm:prSet presAssocID="{11E37798-40CC-4864-9BD7-5F25B1321151}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="18" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4C0F25CD-5753-4CF0-B25B-934C0ED3B4DF}" type="pres">
+      <dgm:prSet presAssocID="{11E37798-40CC-4864-9BD7-5F25B1321151}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{06E881C7-2214-4DD9-A8FC-15EFFF590781}" type="pres">
+      <dgm:prSet presAssocID="{F281581D-8C8E-492B-AA76-5BDC2578CA86}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="19" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0C02C0C3-1FAA-4666-9429-EF495C95D2E2}" type="pres">
+      <dgm:prSet presAssocID="{7FFB78FE-718D-4A9D-AC43-47D4777C6D18}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4DD4D383-1BA6-4B1B-BB88-E21B6C9B2734}" type="pres">
+      <dgm:prSet presAssocID="{7FFB78FE-718D-4A9D-AC43-47D4777C6D18}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A221C521-3732-4122-80B2-72F95E4A4347}" type="pres">
+      <dgm:prSet presAssocID="{7FFB78FE-718D-4A9D-AC43-47D4777C6D18}" presName="rootText" presStyleLbl="node4" presStyleIdx="19" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{20298533-A1FF-48CF-87A4-A217BB5F1553}" type="pres">
+      <dgm:prSet presAssocID="{7FFB78FE-718D-4A9D-AC43-47D4777C6D18}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="19" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{43A37921-4CDB-4579-A5D9-95E0715F28BA}" type="pres">
+      <dgm:prSet presAssocID="{7FFB78FE-718D-4A9D-AC43-47D4777C6D18}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{43D5ED6E-E128-421C-AF2E-0AE57DAE4FFD}" type="pres">
+      <dgm:prSet presAssocID="{7FFB78FE-718D-4A9D-AC43-47D4777C6D18}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5E3F6685-541C-4AE9-B225-AAA7B5B367C6}" type="pres">
+      <dgm:prSet presAssocID="{11E37798-40CC-4864-9BD7-5F25B1321151}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{CBF65D71-506B-42E8-9CA3-9914436297FB}" type="pres">
+      <dgm:prSet presAssocID="{5E1E617D-9106-4394-A431-26CA3D461400}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{614049B3-FF95-482E-869C-EE264EAC39F9}" type="pres">
+      <dgm:prSet presAssocID="{7B32A738-CDF6-4FC5-8516-49A960819AC0}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{742FF903-A5B1-47E6-A501-293D9E49AB65}" type="pres">
       <dgm:prSet presAssocID="{F27F4D8B-5BCB-4150-948F-4F48C4348B1F}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4AEAFF16-434E-498E-8AC0-03EB6A2A193C}" type="pres">
+      <dgm:prSet presAssocID="{A58D2854-0CE4-4FB6-9B57-27CC738E86E3}" presName="Name64" presStyleLbl="parChTrans1D3" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F4457B89-DDBD-45AB-9C65-946A8D1C04B8}" type="pres">
+      <dgm:prSet presAssocID="{786AE425-9A43-4D97-BEE8-EE03DA061362}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{AC587F69-423E-4083-8378-CE6F4290139D}" type="pres">
+      <dgm:prSet presAssocID="{786AE425-9A43-4D97-BEE8-EE03DA061362}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7D04ED8D-D666-42D8-A91E-BEA90EB6FFCC}" type="pres">
+      <dgm:prSet presAssocID="{786AE425-9A43-4D97-BEE8-EE03DA061362}" presName="rootText" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="4">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{25733F2D-FB66-4D18-A7DA-25A921ECAE47}" type="pres">
+      <dgm:prSet presAssocID="{786AE425-9A43-4D97-BEE8-EE03DA061362}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="3" presStyleCnt="4"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{D514CA09-C9A3-44CF-9520-958AA582B9D8}" type="pres">
+      <dgm:prSet presAssocID="{786AE425-9A43-4D97-BEE8-EE03DA061362}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5E8B2F6D-CA8C-4C9A-9EDE-F43ABFDA2002}" type="pres">
+      <dgm:prSet presAssocID="{C115AE81-C307-46DD-9CA3-43EDCE2FA6D4}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="20" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DEB99678-05D3-4662-92A3-EB4764668F82}" type="pres">
+      <dgm:prSet presAssocID="{92302666-A803-4820-A6ED-01874A1E6B28}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DD97C8F1-84BD-4799-A5EE-212546A2C78A}" type="pres">
+      <dgm:prSet presAssocID="{92302666-A803-4820-A6ED-01874A1E6B28}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{49F3895F-902D-46B2-8605-BA7A88FB922E}" type="pres">
+      <dgm:prSet presAssocID="{92302666-A803-4820-A6ED-01874A1E6B28}" presName="rootText" presStyleLbl="node4" presStyleIdx="20" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0EBE7715-5B85-4573-8B6D-A2A2B7CD4578}" type="pres">
+      <dgm:prSet presAssocID="{92302666-A803-4820-A6ED-01874A1E6B28}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="20" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{90DE45EC-AA34-4331-8324-9E6F24E056CB}" type="pres">
+      <dgm:prSet presAssocID="{92302666-A803-4820-A6ED-01874A1E6B28}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BEB14FCE-D34F-4105-8F31-9A01202CA961}" type="pres">
+      <dgm:prSet presAssocID="{4FA74600-C614-47D9-91E3-A70D2516FC6A}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="21" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{BDFB353E-C986-4814-AA4A-4EA05DBD672D}" type="pres">
+      <dgm:prSet presAssocID="{5BC96C37-15FC-485C-B2DA-F32C40CF40DF}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F9DAE32A-986C-402E-8B6B-4B27D4FE81A3}" type="pres">
+      <dgm:prSet presAssocID="{5BC96C37-15FC-485C-B2DA-F32C40CF40DF}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{0D8D4247-4AE1-4DBA-BD28-324379441001}" type="pres">
+      <dgm:prSet presAssocID="{5BC96C37-15FC-485C-B2DA-F32C40CF40DF}" presName="rootText" presStyleLbl="node4" presStyleIdx="21" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{950CD8C1-4C17-4AE9-A4EF-40A90E8D0490}" type="pres">
+      <dgm:prSet presAssocID="{5BC96C37-15FC-485C-B2DA-F32C40CF40DF}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="21" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DDB55D10-4E45-4EA8-9AA0-12BBF87FF029}" type="pres">
+      <dgm:prSet presAssocID="{5BC96C37-15FC-485C-B2DA-F32C40CF40DF}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{A16B86A5-5769-4D5B-BD77-EC79E60F04F7}" type="pres">
+      <dgm:prSet presAssocID="{B9C1118D-652A-4268-A2C3-E537B12ACBA5}" presName="Name64" presStyleLbl="parChTrans1D4" presStyleIdx="22" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8F3E557F-331E-46E0-B220-83F0952A3F8E}" type="pres">
+      <dgm:prSet presAssocID="{6E9CD1D8-C709-454C-B808-77761556B2F3}" presName="hierRoot2" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:hierBranch val="init"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C8E8778E-1FDF-46FC-94A8-88620A906C06}" type="pres">
+      <dgm:prSet presAssocID="{6E9CD1D8-C709-454C-B808-77761556B2F3}" presName="rootComposite" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3F37AB66-5D37-4AC8-A2C4-53A8EC053CDB}" type="pres">
+      <dgm:prSet presAssocID="{6E9CD1D8-C709-454C-B808-77761556B2F3}" presName="rootText" presStyleLbl="node4" presStyleIdx="22" presStyleCnt="23">
+        <dgm:presLayoutVars>
+          <dgm:chPref val="3"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{F9798A68-03D9-4C8B-BF4F-6CEDD63413DE}" type="pres">
+      <dgm:prSet presAssocID="{6E9CD1D8-C709-454C-B808-77761556B2F3}" presName="rootConnector" presStyleLbl="node4" presStyleIdx="22" presStyleCnt="23"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{EFF17D4F-4387-40B1-95E8-29CB667DF3FF}" type="pres">
+      <dgm:prSet presAssocID="{6E9CD1D8-C709-454C-B808-77761556B2F3}" presName="hierChild4" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5864D1AD-5631-4040-889B-95F62C53A57B}" type="pres">
+      <dgm:prSet presAssocID="{6E9CD1D8-C709-454C-B808-77761556B2F3}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{8474F743-4A6B-44F4-B2BA-004EDD980FBC}" type="pres">
+      <dgm:prSet presAssocID="{5BC96C37-15FC-485C-B2DA-F32C40CF40DF}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{7913D14B-3356-4297-A869-F0C7EBD52C18}" type="pres">
+      <dgm:prSet presAssocID="{92302666-A803-4820-A6ED-01874A1E6B28}" presName="hierChild5" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{44B9735F-015B-4562-81BB-CDEF27EFD941}" type="pres">
+      <dgm:prSet presAssocID="{786AE425-9A43-4D97-BEE8-EE03DA061362}" presName="hierChild5" presStyleCnt="0"/>
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{31662D55-8D8D-4C3C-BD81-0CE4E534AFDE}" type="pres">
@@ -1878,33 +3628,121 @@
   </dgm:ptLst>
   <dgm:cxnLst>
     <dgm:cxn modelId="{37666800-20AF-4DF6-A4C1-A3DB4A5D9821}" type="presOf" srcId="{74D848DB-07DE-45FC-98E3-A8D49F7C803A}" destId="{1BDA86ED-1897-4B23-9AC8-2E1653736DF6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{DE6AB601-A103-4CC4-9FA1-E9DB2B9297D6}" srcId="{F2D4F08C-F5CA-4652-B583-140198E0DC3D}" destId="{53C2F666-47BE-4846-8780-B62866D11957}" srcOrd="0" destOrd="0" parTransId="{72ACBB6E-F170-4DFE-B84B-1D590DBA817D}" sibTransId="{A098892D-B31B-42CC-A6D8-62C0E871BD97}"/>
+    <dgm:cxn modelId="{0CDC3104-05A8-4E8C-90E9-8EC44CA7BC1B}" type="presOf" srcId="{428F9133-E81E-4524-920F-F7737D0B9A22}" destId="{34A73D86-0FB3-465B-83CD-E581BA5049DD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{8BFE4A05-EA00-484D-8580-264B325D7771}" type="presOf" srcId="{B8EF4D80-B500-4AD9-8A1A-4464FCDC6393}" destId="{73C82DDF-A03E-4FFD-B7EC-E1E2865E713A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{040BC406-2F13-469F-BA58-1FCA9AD80DD6}" srcId="{193B3527-E9C3-497F-85EA-69050D02EF16}" destId="{F27F4D8B-5BCB-4150-948F-4F48C4348B1F}" srcOrd="2" destOrd="0" parTransId="{E3FA4C6B-0C8C-4B77-89C4-C3BF8C3CB103}" sibTransId="{54F88F29-DB11-405D-AFD6-64DD5C7EF201}"/>
+    <dgm:cxn modelId="{9C67280A-F741-4743-B046-BD7700CFE67C}" type="presOf" srcId="{B5F1503A-7DA2-4501-8BA4-33E1F5BC7B08}" destId="{B38A7FCD-5210-4B4D-A200-3FBE7C43A5D5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{BEDD4D0A-CAF5-4AB9-A6FF-C1FD8AEE631E}" type="presOf" srcId="{F27F4D8B-5BCB-4150-948F-4F48C4348B1F}" destId="{ADF48975-9CCC-489E-94FD-23C8EC190236}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{AE7F240C-1C44-4B93-99E8-28B1B2E0C4A5}" type="presOf" srcId="{7FFB78FE-718D-4A9D-AC43-47D4777C6D18}" destId="{A221C521-3732-4122-80B2-72F95E4A4347}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{5D5EBC0C-C5AF-493C-8F15-0BB5E70BD468}" type="presOf" srcId="{3B56FCD2-82E8-476F-A32F-36FB8FF7CBA4}" destId="{E86CB141-D692-4609-9934-2848921A7000}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{88370F0E-6ACA-4E9C-9BB9-5513AC686A5A}" type="presOf" srcId="{BB0439F0-421E-4045-9418-2800638C8DAA}" destId="{6238D206-D2C6-4CE5-ABD9-2EE4394F3F04}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{7FB9C70F-1C93-4BF0-9588-9EFD4D8206C0}" type="presOf" srcId="{92302666-A803-4820-A6ED-01874A1E6B28}" destId="{0EBE7715-5B85-4573-8B6D-A2A2B7CD4578}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{C49D5E10-619F-4CAE-9D6B-81F01E4008F0}" srcId="{5BC96C37-15FC-485C-B2DA-F32C40CF40DF}" destId="{6E9CD1D8-C709-454C-B808-77761556B2F3}" srcOrd="0" destOrd="0" parTransId="{B9C1118D-652A-4268-A2C3-E537B12ACBA5}" sibTransId="{865DE547-4BD1-42CE-8AEA-2D78066E38AD}"/>
+    <dgm:cxn modelId="{9C179D13-A666-4F7B-8E03-B9C5B144A35A}" type="presOf" srcId="{7E04D793-A2AF-46B5-8072-78A39CED3265}" destId="{C21B5B44-6117-4EBB-AF38-323E29F5036C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{BFA76217-54B2-4DC5-A7A2-CD28A2EBB705}" srcId="{193B3527-E9C3-497F-85EA-69050D02EF16}" destId="{BEEFE57B-2DD1-41D2-958E-B94B33B7AF5F}" srcOrd="1" destOrd="0" parTransId="{2A0B8240-737D-4E0F-9491-882B31BA46F8}" sibTransId="{CE971103-B4E7-4602-8414-6FF017927A64}"/>
+    <dgm:cxn modelId="{38410018-9622-4F39-9863-2E743A90D11D}" type="presOf" srcId="{F27F4D8B-5BCB-4150-948F-4F48C4348B1F}" destId="{F9A45FA4-F784-4208-A7DD-73336ED69A23}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{66B18B1C-548C-4028-9635-AA1D7A256FE9}" type="presOf" srcId="{BB0439F0-421E-4045-9418-2800638C8DAA}" destId="{4B742D7F-CD85-4F18-862C-2BFF99B3E389}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{2FF4381D-BA4E-48B6-8DEA-AA98FEC51874}" type="presOf" srcId="{193B3527-E9C3-497F-85EA-69050D02EF16}" destId="{A02EFDC6-A32A-47BD-98D7-FD2FDF962EC7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{CA451D21-F8F3-4CFA-8749-A94191DB7D23}" srcId="{193B3527-E9C3-497F-85EA-69050D02EF16}" destId="{786AE425-9A43-4D97-BEE8-EE03DA061362}" srcOrd="3" destOrd="0" parTransId="{A58D2854-0CE4-4FB6-9B57-27CC738E86E3}" sibTransId="{CB896FDF-7EEF-4E25-9D3D-CD8E2E00C899}"/>
+    <dgm:cxn modelId="{BCC2C722-EC1F-4428-A342-914AF5BD2175}" type="presOf" srcId="{A58D2854-0CE4-4FB6-9B57-27CC738E86E3}" destId="{4AEAFF16-434E-498E-8AC0-03EB6A2A193C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{D2D16A24-E7D9-49E2-AEA3-BD58A08D7A76}" type="presOf" srcId="{46117F56-8251-4476-954D-DB032E63AC4D}" destId="{EA9CF248-1326-4D78-93B7-B6131A505245}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{3B13D724-E57E-433F-93BF-B44DA5EE54D6}" type="presOf" srcId="{5BC96C37-15FC-485C-B2DA-F32C40CF40DF}" destId="{0D8D4247-4AE1-4DBA-BD28-324379441001}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{7CF5D826-2BE8-4811-A369-B5E73D5C8BBB}" type="presOf" srcId="{7B32A738-CDF6-4FC5-8516-49A960819AC0}" destId="{BA6FAB83-0215-476D-8AC7-A769045344E0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{DA56E729-65DB-43DA-93CC-D6C90E12147F}" type="presOf" srcId="{13959B3C-60DD-4D43-AE53-485E94F041DD}" destId="{1EE4D16C-87AD-4009-B8DD-9C2E06E7DCB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{8CA3A22C-FF93-4DF7-B01C-BEB93E851E04}" type="presOf" srcId="{769240A1-117A-4BF5-BE16-D236CA08B7C1}" destId="{708933CD-5CFB-485F-A208-E2BE75312461}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{90AB6C2D-C3C5-443C-BD24-619003A5135D}" type="presOf" srcId="{6E9CD1D8-C709-454C-B808-77761556B2F3}" destId="{F9798A68-03D9-4C8B-BF4F-6CEDD63413DE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{6F46B22D-5906-46AE-8767-940F19BDDF85}" type="presOf" srcId="{835C7D28-C6B8-4052-BD4E-E4C2ACC02E42}" destId="{91603FE8-5AA5-4A12-9803-418FD270BD4F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{2616D82E-B258-488A-AAD8-7AA575A827F4}" srcId="{FA90958C-894A-44C5-AEDE-D31089181A9E}" destId="{193B3527-E9C3-497F-85EA-69050D02EF16}" srcOrd="0" destOrd="0" parTransId="{A0605C6F-84D1-4E97-9BA0-2B489137D0AE}" sibTransId="{DED68FF6-2B7D-448E-8057-451AF2D0181E}"/>
+    <dgm:cxn modelId="{02E6EC2F-6581-4157-A241-E63E32BA4F4C}" type="presOf" srcId="{428F9133-E81E-4524-920F-F7737D0B9A22}" destId="{F618EC52-C31D-44C8-BCA5-8EE22083699F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{87167932-F671-48DE-AC10-78BF4C5BA23A}" srcId="{BEEFE57B-2DD1-41D2-958E-B94B33B7AF5F}" destId="{74D848DB-07DE-45FC-98E3-A8D49F7C803A}" srcOrd="0" destOrd="0" parTransId="{B705EC36-F8A9-4CC0-8495-1FA2C4C75DD5}" sibTransId="{55EF18B6-1067-4A42-B9E5-9A7ACA4F9BAF}"/>
     <dgm:cxn modelId="{913BD932-7E44-4A56-81A0-93840C149C9D}" type="presOf" srcId="{FA90958C-894A-44C5-AEDE-D31089181A9E}" destId="{D6CBB32B-DFC5-4338-BD32-BDE61A9A8F0F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{17A91237-A348-4C0A-A666-45C7C62C215E}" type="presOf" srcId="{D80DD8E3-08EE-4546-91EF-0E02B755920F}" destId="{8ABDE085-19CC-4E6F-9BAC-337B08F0615B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{D8D62E37-A389-4708-9FEB-F1C43D6F8111}" type="presOf" srcId="{641EF105-8367-4BB2-BD1E-155CA31823F8}" destId="{179EE195-1920-48C5-B1CA-55D03C134608}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{2010BF3A-B69F-448A-A71D-19778A2C542D}" srcId="{7B32A738-CDF6-4FC5-8516-49A960819AC0}" destId="{9C295D08-EDBA-4CCB-A17E-A1F4112E5BC1}" srcOrd="0" destOrd="0" parTransId="{DE37930C-AAA4-487C-A9FC-E5952740121C}" sibTransId="{85E5655C-0B05-44A3-AAB5-831EDEB36D06}"/>
+    <dgm:cxn modelId="{7CF98C3B-397F-4665-AD61-D14F6955EEE2}" type="presOf" srcId="{F2D4F08C-F5CA-4652-B583-140198E0DC3D}" destId="{0EC762FC-3818-4D5C-83FA-2C288DEC922A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{07DB903E-1974-47A4-A600-1BEF697BC6EE}" type="presOf" srcId="{C115AE81-C307-46DD-9CA3-43EDCE2FA6D4}" destId="{5E8B2F6D-CA8C-4C9A-9EDE-F43ABFDA2002}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{29AAE05E-4276-410B-B64F-2FE09DF70CD8}" type="presOf" srcId="{BEEFE57B-2DD1-41D2-958E-B94B33B7AF5F}" destId="{9BCBC157-0737-4793-AFE7-099BC047BA8F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{5828C85F-115B-4B83-B96A-165F61AE75FB}" type="presOf" srcId="{D3D1B553-E611-4401-8728-0221385BACB4}" destId="{C3BD116C-1817-4A53-8EDB-CDE93F2F3045}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
-    <dgm:cxn modelId="{66B96C46-031F-44D8-BA76-092D553DBB07}" type="presOf" srcId="{E3FA4C6B-0C8C-4B77-89C4-C3BF8C3CB103}" destId="{D9D3E950-2D7F-4FCA-B3F3-527543935621}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
-    <dgm:cxn modelId="{A646DC68-F1DD-4E52-A38A-4976088762A7}" type="presOf" srcId="{F27F4D8B-5BCB-4150-948F-4F48C4348B1F}" destId="{01D0391F-94CF-47E1-B3D5-F4A9470F84F9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{3F0D8B60-55BE-4AE4-8929-0A9D6E505854}" srcId="{E7639B3F-0AB4-46DC-91FD-780D585A61B5}" destId="{B8EF4D80-B500-4AD9-8A1A-4464FCDC6393}" srcOrd="0" destOrd="0" parTransId="{641EF105-8367-4BB2-BD1E-155CA31823F8}" sibTransId="{0C1931B5-E04D-48B7-91A1-811C5B08F192}"/>
+    <dgm:cxn modelId="{3049DF60-0D7A-462D-89CB-60E9FC35466E}" type="presOf" srcId="{5E1E617D-9106-4394-A431-26CA3D461400}" destId="{08DB4AF9-8E42-40AA-84E5-CADFA71299D7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{5ABF1862-1DB8-4A0B-B443-E014D422F738}" srcId="{7994C439-D0A6-4027-960D-47C65D8CC093}" destId="{B5F1503A-7DA2-4501-8BA4-33E1F5BC7B08}" srcOrd="0" destOrd="0" parTransId="{DE27B65F-F99C-4CBF-8177-20604F5D624E}" sibTransId="{B0D58F6D-3674-459B-A44B-904AC65148C3}"/>
+    <dgm:cxn modelId="{A80F3F64-1CAD-4281-ADED-7F6EC8B883A8}" srcId="{B0481A56-E7D1-4A08-B983-150F1C0A9D95}" destId="{BB0439F0-421E-4045-9418-2800638C8DAA}" srcOrd="1" destOrd="0" parTransId="{E5DFFEC2-1FCA-49B0-A9A7-2737738747F9}" sibTransId="{A7243E23-6FA4-4189-B1A9-21617F2E7888}"/>
     <dgm:cxn modelId="{4CD92B69-B044-4B37-92D5-76CF2CE2C38A}" type="presOf" srcId="{C631C2BD-25F9-45EB-AA36-FAB60E37F686}" destId="{6C4A8901-7CD8-43E0-8082-C115BA9BD358}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{C1110D6A-5238-4E20-A574-7D551781B070}" srcId="{92302666-A803-4820-A6ED-01874A1E6B28}" destId="{5BC96C37-15FC-485C-B2DA-F32C40CF40DF}" srcOrd="0" destOrd="0" parTransId="{4FA74600-C614-47D9-91E3-A70D2516FC6A}" sibTransId="{D5404566-CCDB-4253-80FF-337914496378}"/>
+    <dgm:cxn modelId="{12E2724E-07CF-4027-8E08-A49137297B48}" type="presOf" srcId="{11E37798-40CC-4864-9BD7-5F25B1321151}" destId="{91FA7B8D-26D1-4173-8A38-13ACD0E6A69F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{960C704F-4702-46A1-8E12-44E28D5A0735}" type="presOf" srcId="{A71CBFE6-68F8-428E-BCBF-01889D7158D5}" destId="{76FA466F-C5B0-4A10-804C-FFE56D7A1302}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{9D9F4651-9AE5-49D9-8BFD-1BABFC45E1A0}" type="presOf" srcId="{E5DFFEC2-1FCA-49B0-A9A7-2737738747F9}" destId="{1A84F7CD-9CB3-4B64-84E8-08EFCAC3BDAC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{8CB9B551-CCC0-4FFB-9C40-616960D54197}" srcId="{193B3527-E9C3-497F-85EA-69050D02EF16}" destId="{C631C2BD-25F9-45EB-AA36-FAB60E37F686}" srcOrd="0" destOrd="0" parTransId="{BBE22A03-C970-4163-80C0-A1927A1DB965}" sibTransId="{6400B21C-0675-4B42-83E7-F4B747B88C0F}"/>
+    <dgm:cxn modelId="{A09A7372-74CE-4B04-A360-280202945C6C}" type="presOf" srcId="{11E37798-40CC-4864-9BD7-5F25B1321151}" destId="{AAF151B6-8F38-4316-93CE-21EBF0ACEE82}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{69048E57-633C-49FE-87AB-9B3AC0DADEED}" srcId="{F27F4D8B-5BCB-4150-948F-4F48C4348B1F}" destId="{7B32A738-CDF6-4FC5-8516-49A960819AC0}" srcOrd="0" destOrd="0" parTransId="{3B56FCD2-82E8-476F-A32F-36FB8FF7CBA4}" sibTransId="{B4AB2AE6-3195-4C4E-A92A-668535359500}"/>
+    <dgm:cxn modelId="{55C36079-EC5F-4453-B43D-BC9030CA8A26}" type="presOf" srcId="{4FA74600-C614-47D9-91E3-A70D2516FC6A}" destId="{BEB14FCE-D34F-4105-8F31-9A01202CA961}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{E39CBF7B-CC60-4933-8EDF-1E7E81A8260A}" srcId="{0722F470-FFD8-41F3-AFF3-6693B7E1D53E}" destId="{F2D4F08C-F5CA-4652-B583-140198E0DC3D}" srcOrd="1" destOrd="0" parTransId="{225113F8-A9A4-42B8-BC1B-1D70F5EC219B}" sibTransId="{46F36FB0-8AD3-42EE-AF99-47B6BEF482C1}"/>
+    <dgm:cxn modelId="{7E66FC7C-3FC2-4810-A5AC-90B9262AE249}" type="presOf" srcId="{E7639B3F-0AB4-46DC-91FD-780D585A61B5}" destId="{949DB9AE-6468-4D7F-87A8-CAF43BE3CE1A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{4B90627D-A871-439D-86CB-45E24B2E2FB5}" srcId="{B0481A56-E7D1-4A08-B983-150F1C0A9D95}" destId="{E7639B3F-0AB4-46DC-91FD-780D585A61B5}" srcOrd="0" destOrd="0" parTransId="{D80DD8E3-08EE-4546-91EF-0E02B755920F}" sibTransId="{1C8C75A3-2C92-490C-8343-11600F4332BD}"/>
     <dgm:cxn modelId="{5007EE84-6726-43C1-9962-EDAB95C6EF12}" srcId="{C631C2BD-25F9-45EB-AA36-FAB60E37F686}" destId="{1ECDD0A6-1311-46B1-A11B-C710DE19F6D8}" srcOrd="0" destOrd="0" parTransId="{D3D1B553-E611-4401-8728-0221385BACB4}" sibTransId="{1D475FD8-479D-420E-9118-0D140A7D7090}"/>
+    <dgm:cxn modelId="{DBAD2189-DC5D-45F9-94A6-47AE29CE9E7F}" srcId="{1ECDD0A6-1311-46B1-A11B-C710DE19F6D8}" destId="{0722F470-FFD8-41F3-AFF3-6693B7E1D53E}" srcOrd="0" destOrd="0" parTransId="{7E04D793-A2AF-46B5-8072-78A39CED3265}" sibTransId="{0690908C-917C-413D-B7F8-7BE212E29E1B}"/>
+    <dgm:cxn modelId="{E443448C-2963-4565-B6F1-293F7108F8B9}" type="presOf" srcId="{786AE425-9A43-4D97-BEE8-EE03DA061362}" destId="{25733F2D-FB66-4D18-A7DA-25A921ECAE47}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{BE69D28D-B209-4A08-97CB-54123BB5A87A}" srcId="{9C295D08-EDBA-4CCB-A17E-A1F4112E5BC1}" destId="{7994C439-D0A6-4027-960D-47C65D8CC093}" srcOrd="0" destOrd="0" parTransId="{835C7D28-C6B8-4052-BD4E-E4C2ACC02E42}" sibTransId="{5403B332-99A5-4B8F-9509-2975252300B5}"/>
+    <dgm:cxn modelId="{94F03A93-6B72-4E59-B283-6E228ECA2260}" type="presOf" srcId="{7FFB78FE-718D-4A9D-AC43-47D4777C6D18}" destId="{20298533-A1FF-48CF-87A4-A217BB5F1553}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{0094A593-1AA3-4C1D-A536-E8AFBA895F84}" srcId="{0722F470-FFD8-41F3-AFF3-6693B7E1D53E}" destId="{46117F56-8251-4476-954D-DB032E63AC4D}" srcOrd="0" destOrd="0" parTransId="{64BD5905-9988-4D48-8147-09429C71C099}" sibTransId="{776A3D96-6C25-4BF3-89AE-8F7118623717}"/>
     <dgm:cxn modelId="{57E9A294-1B7F-455E-8199-54768C041E5E}" type="presOf" srcId="{193B3527-E9C3-497F-85EA-69050D02EF16}" destId="{79093A18-D8E6-4464-99FA-5A5CCCD7010D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{D4A93A96-D705-4FBF-851D-640C2F932D93}" type="presOf" srcId="{1ECDD0A6-1311-46B1-A11B-C710DE19F6D8}" destId="{C7986F6E-1551-4615-8D4F-0F7A442E779A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
-    <dgm:cxn modelId="{B3C7C3A3-291B-48F0-BB79-9A66F6DDA8A9}" type="presOf" srcId="{F27F4D8B-5BCB-4150-948F-4F48C4348B1F}" destId="{7F19217E-24B3-4627-9072-890E7C39ABC3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{B21D4996-2655-4BA9-A97C-8C2CD635C3FC}" type="presOf" srcId="{7F9F2918-7D81-4087-A5D1-F4A6FADFDEC4}" destId="{105F5FAB-84D8-4CE6-BFC5-C689CCD8322E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{B474C49B-D818-442A-B095-4319DB55FCBC}" type="presOf" srcId="{39798E30-D013-4C9B-9BC6-9E630671D61B}" destId="{B60AA2C4-9DA1-4CD4-B2A3-C1DE9E1BCB6B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{B815729C-B9F3-4E9A-9ED3-AB3C7DBDC8CE}" srcId="{11E37798-40CC-4864-9BD7-5F25B1321151}" destId="{7FFB78FE-718D-4A9D-AC43-47D4777C6D18}" srcOrd="0" destOrd="0" parTransId="{F281581D-8C8E-492B-AA76-5BDC2578CA86}" sibTransId="{50E394FA-551A-45AF-AD68-68A6EDD35999}"/>
+    <dgm:cxn modelId="{B9727E9E-244E-49AD-908E-3BAB2B38D774}" srcId="{F2D4F08C-F5CA-4652-B583-140198E0DC3D}" destId="{7F9F2918-7D81-4087-A5D1-F4A6FADFDEC4}" srcOrd="1" destOrd="0" parTransId="{A71CBFE6-68F8-428E-BCBF-01889D7158D5}" sibTransId="{04FB5C54-1E15-4033-98D2-FA0911AF3822}"/>
+    <dgm:cxn modelId="{B228A4A0-8AF9-4297-A95F-C4FD700CA029}" type="presOf" srcId="{5E500BB4-FD42-45EB-8EFA-733877DCFB4A}" destId="{0A0201AE-DC6E-4496-BC04-9B70273029D7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{31D914A1-F8E0-4BEE-9385-483C253B41E6}" type="presOf" srcId="{53C2F666-47BE-4846-8780-B62866D11957}" destId="{9451DAD1-D6C3-4809-AFA5-BCDEC0F46B16}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{801930A1-034D-4C94-BE27-6EF67822B8E8}" type="presOf" srcId="{46117F56-8251-4476-954D-DB032E63AC4D}" destId="{F2D3DEEF-7DB1-4016-A644-DF8F36D836B3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{913696A9-8D9B-485D-9B94-0FB4EA32503A}" srcId="{7B32A738-CDF6-4FC5-8516-49A960819AC0}" destId="{5E1E617D-9106-4394-A431-26CA3D461400}" srcOrd="1" destOrd="0" parTransId="{C9110F6B-BF5C-4D9E-B2D0-D7845903FAD0}" sibTransId="{C64551C1-0947-4576-AC20-B976F8FFB66E}"/>
+    <dgm:cxn modelId="{F35C26AE-2F35-4AF2-BD95-F8B5BCBA93AB}" type="presOf" srcId="{0722F470-FFD8-41F3-AFF3-6693B7E1D53E}" destId="{1699E2A8-5A9E-47AC-85DF-6652FE6F8577}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{2436AEAE-756F-4506-B773-27B9E7638CF5}" type="presOf" srcId="{C9110F6B-BF5C-4D9E-B2D0-D7845903FAD0}" destId="{8E5479D3-6365-414D-8D83-1AF889A1ED7B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{30A072AF-76D4-4319-93A0-B8DC2193D215}" type="presOf" srcId="{5E1E617D-9106-4394-A431-26CA3D461400}" destId="{39F25024-737A-44B1-BB3A-23B27A7666B4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{0B02CDAF-1D58-4400-AFD6-F58A595A825A}" type="presOf" srcId="{72ACBB6E-F170-4DFE-B84B-1D590DBA817D}" destId="{A32F1A5C-2163-4EB3-8994-D50D92C78FCE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{3A330BB3-B100-4D5E-9CEC-1D78EEA022E8}" type="presOf" srcId="{1ECDD0A6-1311-46B1-A11B-C710DE19F6D8}" destId="{C7F5875F-041A-4975-B981-3ECDCE1DF5AB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{AD6DE9B8-7476-40FE-A38F-D50CD3903A46}" type="presOf" srcId="{7B32A738-CDF6-4FC5-8516-49A960819AC0}" destId="{6104CD32-A354-4371-9BB8-FB13B0010254}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{674C10B9-DBB0-4ED7-8D51-25528AD8BE66}" srcId="{5E1E617D-9106-4394-A431-26CA3D461400}" destId="{11E37798-40CC-4864-9BD7-5F25B1321151}" srcOrd="0" destOrd="0" parTransId="{7D9C5205-6D78-401D-ABA0-E4092F6116B7}" sibTransId="{32652527-DE43-490B-9CEC-C683A68A049B}"/>
+    <dgm:cxn modelId="{D271ACBA-E7FE-4AE0-BA47-2B8446714958}" type="presOf" srcId="{B0481A56-E7D1-4A08-B983-150F1C0A9D95}" destId="{B6FA964F-3D30-4FD3-968F-24D5819581E3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{9BF292BC-B70D-454A-8A0E-D37EACA5A1FF}" type="presOf" srcId="{FA90958C-894A-44C5-AEDE-D31089181A9E}" destId="{896AE1A8-4839-45DE-ACF5-259A57E54A53}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{F7E571BF-E4B8-4908-B5A3-065D25350FE7}" type="presOf" srcId="{5BC96C37-15FC-485C-B2DA-F32C40CF40DF}" destId="{950CD8C1-4C17-4AE9-A4EF-40A90E8D0490}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{64A04DC0-6938-4F7B-8491-2921754A2B41}" type="presOf" srcId="{13959B3C-60DD-4D43-AE53-485E94F041DD}" destId="{0845A3F2-CFB1-4D60-A512-37FA7B5D01E6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{2480D1C1-6AA4-431C-9C8D-24DB6BE08780}" type="presOf" srcId="{B705EC36-F8A9-4CC0-8495-1FA2C4C75DD5}" destId="{78177F2E-AD9E-4A65-83F3-5F5357869156}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{77292CC2-3ACA-40F4-8FAC-70CB34DFC468}" type="presOf" srcId="{225113F8-A9A4-42B8-BC1B-1D70F5EC219B}" destId="{46043C73-4888-4602-8DCD-83A8473312AC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{0C9222CA-821E-477F-AFA9-1FAB6C321B4D}" type="presOf" srcId="{DE27B65F-F99C-4CBF-8177-20604F5D624E}" destId="{CCE2EC36-F7D9-4A57-8038-7183AD7CC22D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{CF923DCA-412B-4703-B877-3CEB9479F48B}" type="presOf" srcId="{2A0B8240-737D-4E0F-9491-882B31BA46F8}" destId="{5EF519EB-1802-4A4D-8D27-D2FF707A0802}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{9ED0EDCA-44A8-4D88-A736-33CA0895EE79}" type="presOf" srcId="{BBE22A03-C970-4163-80C0-A1927A1DB965}" destId="{209DE96E-1015-40B1-BA18-56D28784FF3D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{F9AAE7CC-43E2-47B0-91F6-C6CD0A78A630}" srcId="{786AE425-9A43-4D97-BEE8-EE03DA061362}" destId="{92302666-A803-4820-A6ED-01874A1E6B28}" srcOrd="0" destOrd="0" parTransId="{C115AE81-C307-46DD-9CA3-43EDCE2FA6D4}" sibTransId="{A23006E2-BB9A-46D9-B4F0-F69D7769EF5E}"/>
+    <dgm:cxn modelId="{E58AEACE-2B48-460B-81C3-AD77F7A92912}" srcId="{74D848DB-07DE-45FC-98E3-A8D49F7C803A}" destId="{B0481A56-E7D1-4A08-B983-150F1C0A9D95}" srcOrd="0" destOrd="0" parTransId="{39798E30-D013-4C9B-9BC6-9E630671D61B}" sibTransId="{10C9BB38-2D9F-4A44-9304-4DEA13E28956}"/>
+    <dgm:cxn modelId="{411E33D1-2401-4CA8-BFE3-A45ACF2C2044}" type="presOf" srcId="{E7639B3F-0AB4-46DC-91FD-780D585A61B5}" destId="{08C7C3E6-B534-4D17-B065-5A84B7C7EFB5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{841F81D3-FAAE-4FB0-9A79-19FAD7D3B467}" type="presOf" srcId="{53C2F666-47BE-4846-8780-B62866D11957}" destId="{7C91DE38-9297-4511-A949-19D838A226D0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{B14F87D3-AA04-4976-B808-80A8EB29F967}" type="presOf" srcId="{64BD5905-9988-4D48-8147-09429C71C099}" destId="{78FA4EB2-C740-4BBC-9FFC-76050AAFE025}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{ADA4E4D3-9158-42BE-A526-1289F615C937}" type="presOf" srcId="{7994C439-D0A6-4027-960D-47C65D8CC093}" destId="{41FB21E8-11C1-4A21-B02D-5C6C7711348B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{FF975FD4-3C94-43B9-A359-9CC2B0C1C660}" type="presOf" srcId="{74D848DB-07DE-45FC-98E3-A8D49F7C803A}" destId="{C9C96607-9FCC-44CC-89FC-B910672091C3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{D8C984D5-202A-426D-BA67-10B298B4B109}" type="presOf" srcId="{B0481A56-E7D1-4A08-B983-150F1C0A9D95}" destId="{44873741-CFDD-4C8A-9393-6162B182C7D6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{6CB845D9-9302-443D-8E04-3E6CE91A4659}" type="presOf" srcId="{BEEFE57B-2DD1-41D2-958E-B94B33B7AF5F}" destId="{D88FF544-3D4E-43F8-B304-3B7FFB9916E6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{D121B9DB-1A40-4C3E-B634-233C198845FB}" type="presOf" srcId="{786AE425-9A43-4D97-BEE8-EE03DA061362}" destId="{7D04ED8D-D666-42D8-A91E-BEA90EB6FFCC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{2A97EADB-2D27-49E1-858B-24D9C82F236E}" type="presOf" srcId="{92302666-A803-4820-A6ED-01874A1E6B28}" destId="{49F3895F-902D-46B2-8605-BA7A88FB922E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{8F1A11E1-40CE-42AA-879C-03EB0F3084FC}" type="presOf" srcId="{B8EF4D80-B500-4AD9-8A1A-4464FCDC6393}" destId="{E84C4F87-F474-42CB-AF68-121C3BAE9959}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{22793DE1-E70A-408A-AE28-A6EBB88DFA2A}" type="presOf" srcId="{F281581D-8C8E-492B-AA76-5BDC2578CA86}" destId="{06E881C7-2214-4DD9-A8FC-15EFFF590781}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{B94F03E4-B8BD-4A22-85E5-E2E791D039B0}" type="presOf" srcId="{9C295D08-EDBA-4CCB-A17E-A1F4112E5BC1}" destId="{D7BDD4D1-1943-4712-B232-8C9C11250DAE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{54AEA2E5-C747-4081-9D51-889DE59B4B08}" srcId="{BB0439F0-421E-4045-9418-2800638C8DAA}" destId="{428F9133-E81E-4524-920F-F7737D0B9A22}" srcOrd="0" destOrd="0" parTransId="{4E18F1D4-161C-467E-ACE8-73CDA29A4A4A}" sibTransId="{C8EB85E7-7C70-4D79-AE41-30B0755D0CA8}"/>
+    <dgm:cxn modelId="{26F5B3EB-960B-4D40-BBD3-CDC9B488E1EF}" type="presOf" srcId="{4E18F1D4-161C-467E-ACE8-73CDA29A4A4A}" destId="{C4052DBF-2137-43AC-93A3-BD204E667926}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{D69D84EC-692C-4FF8-9BA1-B26F1D69DB8B}" type="presOf" srcId="{7D9C5205-6D78-401D-ABA0-E4092F6116B7}" destId="{25B82283-2ED9-4A56-AF93-B32A3D3DEEEC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{906DA6EE-80A4-44A4-9D95-6EF67777C523}" type="presOf" srcId="{9C295D08-EDBA-4CCB-A17E-A1F4112E5BC1}" destId="{AD6CB5E3-57B9-4F99-B7AB-3BFD9AE1B26D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{3DE56BEF-6179-4835-818A-FA41865329E8}" type="presOf" srcId="{DE37930C-AAA4-487C-A9FC-E5952740121C}" destId="{DD6B7609-EC73-4682-A39F-3F0CEDC61B72}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{AA6B4EF1-219C-416A-8D51-DD2322A6B2FE}" type="presOf" srcId="{C631C2BD-25F9-45EB-AA36-FAB60E37F686}" destId="{86EF3270-6B01-4E90-8816-870DDBBE0DDC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{E8BAF0F1-AB08-4E8B-8070-7DEC61803A00}" srcId="{769240A1-117A-4BF5-BE16-D236CA08B7C1}" destId="{FA90958C-894A-44C5-AEDE-D31089181A9E}" srcOrd="0" destOrd="0" parTransId="{EFA49F48-E92A-45D8-9C16-52B7C591A8D4}" sibTransId="{7AA632DF-FAEE-40E2-9171-64A4FB5261FD}"/>
+    <dgm:cxn modelId="{225347F2-6091-486F-B548-516C05AD48AC}" type="presOf" srcId="{B9C1118D-652A-4268-A2C3-E537B12ACBA5}" destId="{A16B86A5-5769-4D5B-BD77-EC79E60F04F7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{D7B4DDF3-554A-46BC-A758-7F3442A4B47C}" type="presOf" srcId="{7F9F2918-7D81-4087-A5D1-F4A6FADFDEC4}" destId="{AE0D25CC-4F1E-419E-A353-038B4273A6E1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{903FFFF3-E8C6-416B-92A3-152F4788D553}" type="presOf" srcId="{E3FA4C6B-0C8C-4B77-89C4-C3BF8C3CB103}" destId="{D14210F5-30C8-48BB-84DB-BA975CC146C4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{9ACCEEF6-15DF-4D95-A67A-B5276D54B0C0}" srcId="{46117F56-8251-4476-954D-DB032E63AC4D}" destId="{13959B3C-60DD-4D43-AE53-485E94F041DD}" srcOrd="0" destOrd="0" parTransId="{5E500BB4-FD42-45EB-8EFA-733877DCFB4A}" sibTransId="{FC04884D-B3B7-45F4-A800-AAEC916CF235}"/>
+    <dgm:cxn modelId="{2C508DF8-DBAD-4625-B232-305F8BA6F4B4}" type="presOf" srcId="{0722F470-FFD8-41F3-AFF3-6693B7E1D53E}" destId="{4A3CA3E2-7122-4426-AA91-687479A98091}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{73D9AEFC-438A-4A06-B9DE-C93B530FA4A4}" type="presOf" srcId="{7994C439-D0A6-4027-960D-47C65D8CC093}" destId="{FA3FC84A-D6E0-4208-9D75-0DF97CE1083D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{DC74B0FC-00C1-4A74-BF62-FF3E131CDD31}" type="presOf" srcId="{A0605C6F-84D1-4E97-9BA0-2B489137D0AE}" destId="{23F433D1-EE42-4D43-9DC1-0931A6C940F8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{029A8BFE-F456-4D97-ADE8-D5B67021E90F}" type="presOf" srcId="{6E9CD1D8-C709-454C-B808-77761556B2F3}" destId="{3F37AB66-5D37-4AC8-A2C4-53A8EC053CDB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{F2A0B9FF-9ACE-4C33-BE9D-F290715A338B}" type="presOf" srcId="{F2D4F08C-F5CA-4652-B583-140198E0DC3D}" destId="{B1527268-7486-4DA1-AB84-E86962E1F0C6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{E175CAFF-7564-4C56-975F-100B51B62C2A}" type="presOf" srcId="{B5F1503A-7DA2-4501-8BA4-33E1F5BC7B08}" destId="{C7C7924E-4E6A-4FA0-A458-EC98FAA31C5E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{AB9684AA-3ABC-49F3-996E-03F21C835594}" type="presParOf" srcId="{708933CD-5CFB-485F-A208-E2BE75312461}" destId="{6527119A-CA73-48C0-B50A-55C4A8A2B8A1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{E4561F12-22D5-43F4-82A6-AB4F6675A7E8}" type="presParOf" srcId="{6527119A-CA73-48C0-B50A-55C4A8A2B8A1}" destId="{FA9E5A5E-EFF9-4764-834C-1345B7B4362A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{9B39DF21-523A-41BE-A567-134AF828D37C}" type="presParOf" srcId="{FA9E5A5E-EFF9-4764-834C-1345B7B4362A}" destId="{D6CBB32B-DFC5-4338-BD32-BDE61A9A8F0F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
@@ -1928,6 +3766,48 @@
     <dgm:cxn modelId="{B506739D-D728-4D18-958D-083193FF7823}" type="presParOf" srcId="{70FDCD16-82D0-4108-94F5-92E585EB536E}" destId="{C7986F6E-1551-4615-8D4F-0F7A442E779A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{E6352801-A67B-45CF-8548-DE8D4425B7CA}" type="presParOf" srcId="{70FDCD16-82D0-4108-94F5-92E585EB536E}" destId="{C7F5875F-041A-4975-B981-3ECDCE1DF5AB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{87175751-58DA-4770-9B97-6CC4941FB2D7}" type="presParOf" srcId="{F8BD8644-DE80-40A3-973B-FAA3280B41A2}" destId="{0F131A5C-B6EE-4822-BB3F-E7160B939B23}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{338C5B1F-D076-4BCE-89E8-74BCABE86F28}" type="presParOf" srcId="{0F131A5C-B6EE-4822-BB3F-E7160B939B23}" destId="{C21B5B44-6117-4EBB-AF38-323E29F5036C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{EC3CED56-72A5-4526-B8D8-CD49E702D5EC}" type="presParOf" srcId="{0F131A5C-B6EE-4822-BB3F-E7160B939B23}" destId="{05091EB3-055B-4BFF-B0F5-28782BD09CEE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{28093D6E-F339-4CA9-A44F-68B892DF3D6D}" type="presParOf" srcId="{05091EB3-055B-4BFF-B0F5-28782BD09CEE}" destId="{8D2850F3-6F1F-4180-AC25-4AB1A0CC917C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{5EB26BAC-8460-418F-95CA-38FB4D9A1C97}" type="presParOf" srcId="{8D2850F3-6F1F-4180-AC25-4AB1A0CC917C}" destId="{1699E2A8-5A9E-47AC-85DF-6652FE6F8577}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{EF7615BF-3249-4E7F-ADBD-B4AE86AAA963}" type="presParOf" srcId="{8D2850F3-6F1F-4180-AC25-4AB1A0CC917C}" destId="{4A3CA3E2-7122-4426-AA91-687479A98091}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{819C411D-B843-49FC-9611-A30C9CCFD8C2}" type="presParOf" srcId="{05091EB3-055B-4BFF-B0F5-28782BD09CEE}" destId="{405D4AC9-37EB-4D30-92F1-8B64FB85E1DF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{CFB5B3D2-62A1-4ED2-ADB0-2E000783EEA5}" type="presParOf" srcId="{405D4AC9-37EB-4D30-92F1-8B64FB85E1DF}" destId="{78FA4EB2-C740-4BBC-9FFC-76050AAFE025}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{75BDAD21-8F33-44D7-9D15-53DA023BA33B}" type="presParOf" srcId="{405D4AC9-37EB-4D30-92F1-8B64FB85E1DF}" destId="{B9E9508E-190E-41DE-804E-AD369DD9EEB5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{06F82ABF-B958-445A-B31B-5CBE9AEC0D14}" type="presParOf" srcId="{B9E9508E-190E-41DE-804E-AD369DD9EEB5}" destId="{B5F36C7F-3F38-423E-A816-5B0A50FC3264}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{D9D7D2E7-A435-45BC-812A-CF31C3015723}" type="presParOf" srcId="{B5F36C7F-3F38-423E-A816-5B0A50FC3264}" destId="{EA9CF248-1326-4D78-93B7-B6131A505245}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{FF2516F3-ADC9-4FF6-9E47-C1110680868B}" type="presParOf" srcId="{B5F36C7F-3F38-423E-A816-5B0A50FC3264}" destId="{F2D3DEEF-7DB1-4016-A644-DF8F36D836B3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{2F1F8AD9-CBF4-4874-BC86-E85807C010B4}" type="presParOf" srcId="{B9E9508E-190E-41DE-804E-AD369DD9EEB5}" destId="{85AF25AD-5DDB-49B9-A680-8E4D2A379BA0}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{F8DD5D16-B202-4496-A340-5E5A7E6C8640}" type="presParOf" srcId="{85AF25AD-5DDB-49B9-A680-8E4D2A379BA0}" destId="{0A0201AE-DC6E-4496-BC04-9B70273029D7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{C933DD53-D481-4F45-87DF-4AE11F0784E8}" type="presParOf" srcId="{85AF25AD-5DDB-49B9-A680-8E4D2A379BA0}" destId="{60EE68E3-5196-44F7-9CE9-1BEA668C32B8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{00F18D71-292F-40FD-A0ED-86C1A1F02250}" type="presParOf" srcId="{60EE68E3-5196-44F7-9CE9-1BEA668C32B8}" destId="{82E43FA5-7458-4CE4-AF9E-47F7A7D2A602}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{EB6AA6D9-BE64-433D-A8FB-94CAF5313AB7}" type="presParOf" srcId="{82E43FA5-7458-4CE4-AF9E-47F7A7D2A602}" destId="{1EE4D16C-87AD-4009-B8DD-9C2E06E7DCB6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{BF83DA4F-5261-46BD-9B3B-1BDF861C82F6}" type="presParOf" srcId="{82E43FA5-7458-4CE4-AF9E-47F7A7D2A602}" destId="{0845A3F2-CFB1-4D60-A512-37FA7B5D01E6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{B0AEC754-0ADB-462D-B3C6-520A59B6ECD9}" type="presParOf" srcId="{60EE68E3-5196-44F7-9CE9-1BEA668C32B8}" destId="{6F660F97-42BA-4C15-9D36-D56B79EA78DF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{6E385B43-F66B-4E6E-A7E2-E8FC4277B309}" type="presParOf" srcId="{60EE68E3-5196-44F7-9CE9-1BEA668C32B8}" destId="{8033AAD9-9427-404E-B2FF-243128106478}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{AFDF2CB5-AF7D-4888-943D-EA3D40AEC1D4}" type="presParOf" srcId="{B9E9508E-190E-41DE-804E-AD369DD9EEB5}" destId="{4E4220B2-F130-45FD-88A7-B91AEC686EBA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{99259C43-7AF2-4803-87F3-AC21E38F19CD}" type="presParOf" srcId="{405D4AC9-37EB-4D30-92F1-8B64FB85E1DF}" destId="{46043C73-4888-4602-8DCD-83A8473312AC}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{51C44607-461B-4442-8A3B-B9BDF482C106}" type="presParOf" srcId="{405D4AC9-37EB-4D30-92F1-8B64FB85E1DF}" destId="{3C98E31A-ED32-490A-AA42-DD7096F4A650}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{DA6BE1DA-BE1A-46D2-9A75-1B9B3CE36012}" type="presParOf" srcId="{3C98E31A-ED32-490A-AA42-DD7096F4A650}" destId="{A7C9BAA4-5383-43F8-8786-DFCCFEF2DDAB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{D3439115-13CD-4871-AADE-FC8ECC18839B}" type="presParOf" srcId="{A7C9BAA4-5383-43F8-8786-DFCCFEF2DDAB}" destId="{0EC762FC-3818-4D5C-83FA-2C288DEC922A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{145C9691-A42F-48E7-A51F-65BECE7608C4}" type="presParOf" srcId="{A7C9BAA4-5383-43F8-8786-DFCCFEF2DDAB}" destId="{B1527268-7486-4DA1-AB84-E86962E1F0C6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{110BE78C-6E58-4851-BBDA-B801136B8636}" type="presParOf" srcId="{3C98E31A-ED32-490A-AA42-DD7096F4A650}" destId="{44BFAE8B-8DEE-4122-B701-A7F79A44E744}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{7189E02D-F0D7-4AE6-9B49-70FEB88033D3}" type="presParOf" srcId="{44BFAE8B-8DEE-4122-B701-A7F79A44E744}" destId="{A32F1A5C-2163-4EB3-8994-D50D92C78FCE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{632C11A5-EFCE-4971-8ED4-C9D1369C942D}" type="presParOf" srcId="{44BFAE8B-8DEE-4122-B701-A7F79A44E744}" destId="{65F9E682-C93E-424E-88BA-AE598951864A}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{55AC072A-1074-4C03-A82A-7D4A0F898310}" type="presParOf" srcId="{65F9E682-C93E-424E-88BA-AE598951864A}" destId="{4F67D09F-F94F-4B34-A50A-DE2314AF3CA6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{38ED7C2C-3205-4210-B863-601A518E4457}" type="presParOf" srcId="{4F67D09F-F94F-4B34-A50A-DE2314AF3CA6}" destId="{7C91DE38-9297-4511-A949-19D838A226D0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{99D3ABE1-90ED-4EE4-B08B-DB28E6E95DAF}" type="presParOf" srcId="{4F67D09F-F94F-4B34-A50A-DE2314AF3CA6}" destId="{9451DAD1-D6C3-4809-AFA5-BCDEC0F46B16}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{F331D2C0-9DE8-45B6-957C-674ECB40D975}" type="presParOf" srcId="{65F9E682-C93E-424E-88BA-AE598951864A}" destId="{A0E6BA99-13BA-4C21-9C69-5267C87B0FFC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{CB99A023-F178-4EC8-974A-4B201D61CF0D}" type="presParOf" srcId="{65F9E682-C93E-424E-88BA-AE598951864A}" destId="{0969F92A-E721-4F62-BD70-D7A3806F4A14}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{85364488-B778-4803-BF2B-10B9221C3352}" type="presParOf" srcId="{44BFAE8B-8DEE-4122-B701-A7F79A44E744}" destId="{76FA466F-C5B0-4A10-804C-FFE56D7A1302}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{289A601E-A8F2-4D7E-8C94-859BAB81AD65}" type="presParOf" srcId="{44BFAE8B-8DEE-4122-B701-A7F79A44E744}" destId="{4C32DD85-78A6-4BE2-A186-2D87B64AD8B3}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{8CFB5A20-A99A-4392-8F7C-E352C736D398}" type="presParOf" srcId="{4C32DD85-78A6-4BE2-A186-2D87B64AD8B3}" destId="{0E4F91C3-60A3-4A70-B08A-B62DEEAA981C}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{AEF6EE9E-5231-4AE2-A42A-2C5EA5DD5AC6}" type="presParOf" srcId="{0E4F91C3-60A3-4A70-B08A-B62DEEAA981C}" destId="{AE0D25CC-4F1E-419E-A353-038B4273A6E1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{E1ADB9DD-8586-41B8-ABF3-E76135F1974B}" type="presParOf" srcId="{0E4F91C3-60A3-4A70-B08A-B62DEEAA981C}" destId="{105F5FAB-84D8-4CE6-BFC5-C689CCD8322E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{5B9C69D4-2026-4E5B-B4A3-5A67560E3EC3}" type="presParOf" srcId="{4C32DD85-78A6-4BE2-A186-2D87B64AD8B3}" destId="{009DFC79-0892-4468-8814-23B38935C14F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{331A1DD1-826A-4959-B084-820DC6A05414}" type="presParOf" srcId="{4C32DD85-78A6-4BE2-A186-2D87B64AD8B3}" destId="{91F05EEC-235E-4B0F-80E1-727C9D37C6CD}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{761051AD-3435-49B2-8B06-8F01FCB342BA}" type="presParOf" srcId="{3C98E31A-ED32-490A-AA42-DD7096F4A650}" destId="{7F180507-1EA5-44E7-B209-23B675D16C20}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{D68BB0D3-8651-4AC3-AD43-21C3077219A8}" type="presParOf" srcId="{05091EB3-055B-4BFF-B0F5-28782BD09CEE}" destId="{BF86333B-B8C3-4BAA-9928-20F292E41197}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{0E531978-01D4-42D6-A3A8-25A554FDE44E}" type="presParOf" srcId="{F8BD8644-DE80-40A3-973B-FAA3280B41A2}" destId="{4D6BDA38-EA72-45E0-B667-1FEAE84364A4}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{ED51F1CA-EBD8-42F1-BF66-2A6B08C681A3}" type="presParOf" srcId="{99F3A429-8EE6-45EF-95C3-AC52348D4AE8}" destId="{A48ECFB7-F871-4BE9-800D-D7C87C6BAA52}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{4CBE7899-6C57-49BF-89B2-F44FC60C9D3F}" type="presParOf" srcId="{247EA587-41D5-47C8-9FD0-BD54DD9B88DE}" destId="{5EF519EB-1802-4A4D-8D27-D2FF707A0802}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
@@ -1942,15 +3822,127 @@
     <dgm:cxn modelId="{C1C42F7D-DEC5-40C3-9C7D-AE307BC32824}" type="presParOf" srcId="{E01F5304-F574-44EE-A456-8205488671AC}" destId="{1BDA86ED-1897-4B23-9AC8-2E1653736DF6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{7D2A521D-524A-4B0F-BDA8-EDCCFC8FAA1E}" type="presParOf" srcId="{E01F5304-F574-44EE-A456-8205488671AC}" destId="{C9C96607-9FCC-44CC-89FC-B910672091C3}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{0455F075-3AFE-46ED-8BF5-CE1880134CA6}" type="presParOf" srcId="{AFEE0EB9-9C9E-4B93-A7EA-86182616DE72}" destId="{1F433686-0AF4-44A7-907C-3B7322524B0F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{EB06EB2A-4DFA-47AD-A03C-D1C0B1090A19}" type="presParOf" srcId="{1F433686-0AF4-44A7-907C-3B7322524B0F}" destId="{B60AA2C4-9DA1-4CD4-B2A3-C1DE9E1BCB6B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{9F13D0E4-B68C-415F-96DA-BCDD255594C9}" type="presParOf" srcId="{1F433686-0AF4-44A7-907C-3B7322524B0F}" destId="{DEED29F1-72A8-4452-980D-5B526A637916}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{866DFA3F-9A7C-48F3-A0F9-EBD82A264EB7}" type="presParOf" srcId="{DEED29F1-72A8-4452-980D-5B526A637916}" destId="{1615A14E-B267-42EB-BE5A-6A5AB93F65B0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{B714C447-AD02-4FD2-BCCF-7874FCF13BAF}" type="presParOf" srcId="{1615A14E-B267-42EB-BE5A-6A5AB93F65B0}" destId="{B6FA964F-3D30-4FD3-968F-24D5819581E3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{438F7F58-6EC0-4FDC-ACD2-4C38CF0A8962}" type="presParOf" srcId="{1615A14E-B267-42EB-BE5A-6A5AB93F65B0}" destId="{44873741-CFDD-4C8A-9393-6162B182C7D6}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{B33B2D95-0F91-42CD-A1B8-735DC836D4CD}" type="presParOf" srcId="{DEED29F1-72A8-4452-980D-5B526A637916}" destId="{6A36723B-053E-40D0-BB9A-1171E7456D28}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{1B2D2304-EDB7-4678-8452-6B4C1701187D}" type="presParOf" srcId="{6A36723B-053E-40D0-BB9A-1171E7456D28}" destId="{8ABDE085-19CC-4E6F-9BAC-337B08F0615B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{EF430332-3B36-41B9-B9CB-8835C1AC7A9F}" type="presParOf" srcId="{6A36723B-053E-40D0-BB9A-1171E7456D28}" destId="{AEC07E64-E994-45BD-B052-D8A30CD7C0A1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{4B5C22FD-A18A-4E4C-82E9-0DD26E8B4850}" type="presParOf" srcId="{AEC07E64-E994-45BD-B052-D8A30CD7C0A1}" destId="{AC996033-DA73-4637-B83F-6C31222B002B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{5DE7FE56-596F-4D71-8F25-E61B279AAF8D}" type="presParOf" srcId="{AC996033-DA73-4637-B83F-6C31222B002B}" destId="{949DB9AE-6468-4D7F-87A8-CAF43BE3CE1A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{FEADC227-2D4C-44A3-A8F5-78B429C34A4D}" type="presParOf" srcId="{AC996033-DA73-4637-B83F-6C31222B002B}" destId="{08C7C3E6-B534-4D17-B065-5A84B7C7EFB5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{081BBCDD-1704-4DEC-811A-6F8CF433473A}" type="presParOf" srcId="{AEC07E64-E994-45BD-B052-D8A30CD7C0A1}" destId="{891DFB1F-13E5-4069-A96B-DE648ECD6F48}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{2631F4E5-2AE3-49C1-BCE4-66E8A7658278}" type="presParOf" srcId="{891DFB1F-13E5-4069-A96B-DE648ECD6F48}" destId="{179EE195-1920-48C5-B1CA-55D03C134608}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{8E19D1AA-061D-4306-B68D-86B9FB45D2FD}" type="presParOf" srcId="{891DFB1F-13E5-4069-A96B-DE648ECD6F48}" destId="{ECDD328E-90C1-4448-9737-E48FD53DE2D2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{3F500CD4-57C5-4976-91E2-5798E5F21C0C}" type="presParOf" srcId="{ECDD328E-90C1-4448-9737-E48FD53DE2D2}" destId="{0A5B7055-80A2-4EF6-8CDE-E13AD52F1A8E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{15591245-861F-4332-8D5B-9BD14B02466E}" type="presParOf" srcId="{0A5B7055-80A2-4EF6-8CDE-E13AD52F1A8E}" destId="{73C82DDF-A03E-4FFD-B7EC-E1E2865E713A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{4DDE46D0-6796-4C58-9720-C0B0DCE7B739}" type="presParOf" srcId="{0A5B7055-80A2-4EF6-8CDE-E13AD52F1A8E}" destId="{E84C4F87-F474-42CB-AF68-121C3BAE9959}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{02B28C57-F15E-4281-B45D-D8B00A02BE14}" type="presParOf" srcId="{ECDD328E-90C1-4448-9737-E48FD53DE2D2}" destId="{8CC054B8-7913-44F6-B7BF-FF26FF7A8A02}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{A9D68495-CDC6-444A-A988-F4E7F2030A73}" type="presParOf" srcId="{ECDD328E-90C1-4448-9737-E48FD53DE2D2}" destId="{F7188721-6110-4BF6-AC05-3F16AC4F1DDD}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{3CA8FC54-CD29-4B2B-8060-9F80D46B7E0F}" type="presParOf" srcId="{AEC07E64-E994-45BD-B052-D8A30CD7C0A1}" destId="{4ED2D7B0-5799-4E72-AADE-480E91C6E9C9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{8F6E4FFE-6A27-448A-9145-2222EC8829A7}" type="presParOf" srcId="{6A36723B-053E-40D0-BB9A-1171E7456D28}" destId="{1A84F7CD-9CB3-4B64-84E8-08EFCAC3BDAC}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{3D3807B3-FFBF-4BCD-A1EE-E8D18361FD35}" type="presParOf" srcId="{6A36723B-053E-40D0-BB9A-1171E7456D28}" destId="{64B10AC8-9509-40B7-8526-4DF6E0499840}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{FEA97C3C-E03F-4F33-972B-904087CDB52B}" type="presParOf" srcId="{64B10AC8-9509-40B7-8526-4DF6E0499840}" destId="{14B21809-B1C0-4D52-921A-157202435682}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{E39D4FB2-F5F8-4B2C-8853-231C42EEB192}" type="presParOf" srcId="{14B21809-B1C0-4D52-921A-157202435682}" destId="{6238D206-D2C6-4CE5-ABD9-2EE4394F3F04}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{3EF90BAE-0BFE-4D8A-B2CF-938B4E28D06A}" type="presParOf" srcId="{14B21809-B1C0-4D52-921A-157202435682}" destId="{4B742D7F-CD85-4F18-862C-2BFF99B3E389}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{0C6BBC52-9436-4367-A4C6-133B63A9F94C}" type="presParOf" srcId="{64B10AC8-9509-40B7-8526-4DF6E0499840}" destId="{5A48B1A1-EFA4-4EA4-ACA1-6A4E9172249B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{5809B8D6-0CB3-4596-B31B-4A883639A30A}" type="presParOf" srcId="{5A48B1A1-EFA4-4EA4-ACA1-6A4E9172249B}" destId="{C4052DBF-2137-43AC-93A3-BD204E667926}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{604905A6-D138-4C23-8939-0A31328C7FD9}" type="presParOf" srcId="{5A48B1A1-EFA4-4EA4-ACA1-6A4E9172249B}" destId="{504E6784-6571-4C2F-B1C2-502FC07F95AC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{339468EA-C551-4118-8B96-6C1368E951AA}" type="presParOf" srcId="{504E6784-6571-4C2F-B1C2-502FC07F95AC}" destId="{4DDA2DF4-469D-4934-9F99-C9903422FFF5}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{BC8958D7-B829-4776-8C85-90011179CF47}" type="presParOf" srcId="{4DDA2DF4-469D-4934-9F99-C9903422FFF5}" destId="{F618EC52-C31D-44C8-BCA5-8EE22083699F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{5B395ABF-C6B0-4118-BE9B-2DA416037C1C}" type="presParOf" srcId="{4DDA2DF4-469D-4934-9F99-C9903422FFF5}" destId="{34A73D86-0FB3-465B-83CD-E581BA5049DD}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{BEDB3C51-2955-40BD-AB30-A088C33C028A}" type="presParOf" srcId="{504E6784-6571-4C2F-B1C2-502FC07F95AC}" destId="{2AD85ABE-C405-41A5-813A-45F38151089C}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{5E4ED896-BAF6-48CD-BA14-EA6C891BD76E}" type="presParOf" srcId="{504E6784-6571-4C2F-B1C2-502FC07F95AC}" destId="{D67FBAB5-FFBE-4407-953B-5F4BF0F7A9F8}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{1949EF4A-FAA4-4ED2-AF13-D9683A5ABC31}" type="presParOf" srcId="{64B10AC8-9509-40B7-8526-4DF6E0499840}" destId="{283E4E31-970F-40CF-B01A-1B66A2687CFE}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{8061E89B-D480-4B6E-83AF-E3F0CCE48C6D}" type="presParOf" srcId="{DEED29F1-72A8-4452-980D-5B526A637916}" destId="{6E6F76FD-515B-4BEE-89A8-24643637DC88}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{EADAB905-85F8-4426-B0EE-33E1BCEAB710}" type="presParOf" srcId="{AFEE0EB9-9C9E-4B93-A7EA-86182616DE72}" destId="{3F2283B0-0926-4F55-B8D2-BDC1C868F1B9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{8D2D08EB-0273-4C46-AF83-1E893A4B414E}" type="presParOf" srcId="{F6899F8E-3EAE-4B37-A43C-9966D6A391E3}" destId="{65DD29F6-C76B-4F3D-8F31-C4EB65E20672}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
-    <dgm:cxn modelId="{2C85E783-FD82-4D68-8834-A995333151E3}" type="presParOf" srcId="{247EA587-41D5-47C8-9FD0-BD54DD9B88DE}" destId="{D9D3E950-2D7F-4FCA-B3F3-527543935621}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
-    <dgm:cxn modelId="{9ACF0E04-EDBB-4F62-BFE0-3687BB887E4F}" type="presParOf" srcId="{247EA587-41D5-47C8-9FD0-BD54DD9B88DE}" destId="{7D097734-7889-43A0-91E8-43B7B3EB5ED9}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
-    <dgm:cxn modelId="{9F76735D-8D75-4642-B7D9-717F8690BB10}" type="presParOf" srcId="{7D097734-7889-43A0-91E8-43B7B3EB5ED9}" destId="{B77FB223-514F-4F83-A9E2-6D9217530642}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
-    <dgm:cxn modelId="{E17A0D60-5329-4E25-BACA-31FF3EE6C076}" type="presParOf" srcId="{B77FB223-514F-4F83-A9E2-6D9217530642}" destId="{7F19217E-24B3-4627-9072-890E7C39ABC3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
-    <dgm:cxn modelId="{2763213F-D988-4AC6-B53F-E7135E85CE51}" type="presParOf" srcId="{B77FB223-514F-4F83-A9E2-6D9217530642}" destId="{01D0391F-94CF-47E1-B3D5-F4A9470F84F9}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
-    <dgm:cxn modelId="{434B921C-6493-45AA-813A-7D97F7BCFBCF}" type="presParOf" srcId="{7D097734-7889-43A0-91E8-43B7B3EB5ED9}" destId="{7A09A7A5-7956-4EF4-BA49-D8CDF9E58E5B}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
-    <dgm:cxn modelId="{5088EC2A-F81E-45AC-8B42-CFF7F933FBD5}" type="presParOf" srcId="{7D097734-7889-43A0-91E8-43B7B3EB5ED9}" destId="{D90C9060-693F-40CF-BD65-BDCC7D00B8BA}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{D69CDF6F-A407-411E-988C-77454FFCBA64}" type="presParOf" srcId="{247EA587-41D5-47C8-9FD0-BD54DD9B88DE}" destId="{D14210F5-30C8-48BB-84DB-BA975CC146C4}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{27961688-2A9B-4219-B20F-038336879E77}" type="presParOf" srcId="{247EA587-41D5-47C8-9FD0-BD54DD9B88DE}" destId="{84521016-5258-473E-B386-5EB05AF5C2FE}" srcOrd="5" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{DC009C2F-3D6F-4892-9032-6282C2D498F1}" type="presParOf" srcId="{84521016-5258-473E-B386-5EB05AF5C2FE}" destId="{93F30BE2-A77D-4EF1-B723-AE98958ADF49}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{F6817C70-2D9B-4387-9808-A9A122E3E1F9}" type="presParOf" srcId="{93F30BE2-A77D-4EF1-B723-AE98958ADF49}" destId="{F9A45FA4-F784-4208-A7DD-73336ED69A23}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{7C3B26CD-B14E-4982-B236-4208AF178953}" type="presParOf" srcId="{93F30BE2-A77D-4EF1-B723-AE98958ADF49}" destId="{ADF48975-9CCC-489E-94FD-23C8EC190236}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{BEE5A5F5-1C99-4923-AAA3-BB9AB75A91C3}" type="presParOf" srcId="{84521016-5258-473E-B386-5EB05AF5C2FE}" destId="{32BA3E3C-E5B7-425F-A6DF-07E24157B505}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{E5179AB9-D578-4FB7-A9BD-66BFEA299800}" type="presParOf" srcId="{32BA3E3C-E5B7-425F-A6DF-07E24157B505}" destId="{E86CB141-D692-4609-9934-2848921A7000}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{28136560-8FC7-48AD-9C60-3D0A35BC7C9C}" type="presParOf" srcId="{32BA3E3C-E5B7-425F-A6DF-07E24157B505}" destId="{92318C9B-99C9-4C0C-A69F-834EDF0FDA68}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{55B180AF-17A7-4979-9951-6DE69DFB1D8B}" type="presParOf" srcId="{92318C9B-99C9-4C0C-A69F-834EDF0FDA68}" destId="{77D3A474-2DD1-4666-81EF-D518554B28D3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{F5BB71A6-D7F9-44C0-9609-AD970247BD71}" type="presParOf" srcId="{77D3A474-2DD1-4666-81EF-D518554B28D3}" destId="{BA6FAB83-0215-476D-8AC7-A769045344E0}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{1ED5C9CE-763D-4C4B-A25A-809D26CC658F}" type="presParOf" srcId="{77D3A474-2DD1-4666-81EF-D518554B28D3}" destId="{6104CD32-A354-4371-9BB8-FB13B0010254}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{071527A1-A0E0-496F-A368-6AF8459F3CD1}" type="presParOf" srcId="{92318C9B-99C9-4C0C-A69F-834EDF0FDA68}" destId="{0E69FD50-F033-467A-916D-8BC4A82BBE78}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{9A763B00-4AC7-428B-B50F-202F234C0247}" type="presParOf" srcId="{0E69FD50-F033-467A-916D-8BC4A82BBE78}" destId="{DD6B7609-EC73-4682-A39F-3F0CEDC61B72}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{8FC686C5-4CA1-4A2F-9D39-9ECEA44D091D}" type="presParOf" srcId="{0E69FD50-F033-467A-916D-8BC4A82BBE78}" destId="{048CF0A2-3532-4E5E-BDC7-8EF1EAB286F5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{79E8E40E-6893-467D-9C0A-CBAC4C846B7D}" type="presParOf" srcId="{048CF0A2-3532-4E5E-BDC7-8EF1EAB286F5}" destId="{74FB75DE-CB49-44CD-82C2-F07E96CF7402}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{912F84CD-7F2A-4132-969B-43B863C4FADF}" type="presParOf" srcId="{74FB75DE-CB49-44CD-82C2-F07E96CF7402}" destId="{AD6CB5E3-57B9-4F99-B7AB-3BFD9AE1B26D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{73BCD7EA-60AA-4D19-93A6-74BD505EC3F2}" type="presParOf" srcId="{74FB75DE-CB49-44CD-82C2-F07E96CF7402}" destId="{D7BDD4D1-1943-4712-B232-8C9C11250DAE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{F0AA210A-5F1A-49D2-B261-0C5B250FA60B}" type="presParOf" srcId="{048CF0A2-3532-4E5E-BDC7-8EF1EAB286F5}" destId="{7574F575-4479-4BAD-BC0D-1E5F767B8703}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{4AC2644B-0952-480C-8526-1B95803A2C76}" type="presParOf" srcId="{7574F575-4479-4BAD-BC0D-1E5F767B8703}" destId="{91603FE8-5AA5-4A12-9803-418FD270BD4F}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{2EAF7B8F-5877-4AF7-A7C9-08D6B767E3AA}" type="presParOf" srcId="{7574F575-4479-4BAD-BC0D-1E5F767B8703}" destId="{5CD664B4-6224-4FAA-81B3-56B61594665D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{E10795C1-6C01-4B8F-8EA1-5292F8EB050D}" type="presParOf" srcId="{5CD664B4-6224-4FAA-81B3-56B61594665D}" destId="{8F2ED90F-340A-4D0E-9677-2608E66090B1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{A07E0582-3FA2-4E5C-801E-653E86C382C0}" type="presParOf" srcId="{8F2ED90F-340A-4D0E-9677-2608E66090B1}" destId="{41FB21E8-11C1-4A21-B02D-5C6C7711348B}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{805AFE52-48A9-4478-9344-030C5213D8D2}" type="presParOf" srcId="{8F2ED90F-340A-4D0E-9677-2608E66090B1}" destId="{FA3FC84A-D6E0-4208-9D75-0DF97CE1083D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{FFCE7FFC-EA61-44AC-89D8-33E00F37E689}" type="presParOf" srcId="{5CD664B4-6224-4FAA-81B3-56B61594665D}" destId="{FF91E0B8-F459-49CD-89E1-27A279122112}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{026AFE34-2634-4221-B823-9709FEF34906}" type="presParOf" srcId="{FF91E0B8-F459-49CD-89E1-27A279122112}" destId="{CCE2EC36-F7D9-4A57-8038-7183AD7CC22D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{C48A074C-B77E-443C-B4A9-F743E052C4EB}" type="presParOf" srcId="{FF91E0B8-F459-49CD-89E1-27A279122112}" destId="{33F0BB4F-C19B-4454-93CD-9278D131E8DC}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{C98F7453-0678-4693-BE31-76198EE55346}" type="presParOf" srcId="{33F0BB4F-C19B-4454-93CD-9278D131E8DC}" destId="{F881BBB0-56E3-4403-AE1D-F1D786F58F48}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{AABB8085-AF12-487C-951F-4F2884D337EF}" type="presParOf" srcId="{F881BBB0-56E3-4403-AE1D-F1D786F58F48}" destId="{C7C7924E-4E6A-4FA0-A458-EC98FAA31C5E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{F9BA85B9-24C4-459C-920E-6C421B495553}" type="presParOf" srcId="{F881BBB0-56E3-4403-AE1D-F1D786F58F48}" destId="{B38A7FCD-5210-4B4D-A200-3FBE7C43A5D5}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{124514EE-8907-49ED-93C7-96B586454681}" type="presParOf" srcId="{33F0BB4F-C19B-4454-93CD-9278D131E8DC}" destId="{5DA8153F-6B90-4D28-B5B2-5A11F38B72D1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{1DC66532-8A80-4FB1-8EB6-45643A637079}" type="presParOf" srcId="{33F0BB4F-C19B-4454-93CD-9278D131E8DC}" destId="{5BDCA1C0-0873-4DB1-82B9-D2384C1D75C7}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{1159C05B-8292-4F54-A5DB-D7A8C677ACD6}" type="presParOf" srcId="{5CD664B4-6224-4FAA-81B3-56B61594665D}" destId="{27D2F593-F1F3-4118-B26C-7EF91D6F0730}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{C728FD6D-6FCF-47E6-BEAC-F6EC437B5F7B}" type="presParOf" srcId="{048CF0A2-3532-4E5E-BDC7-8EF1EAB286F5}" destId="{965BDDA9-41A7-4BDA-A1DF-BBEF8A9F8C80}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{B910A9C5-0D90-4059-9708-888627B99496}" type="presParOf" srcId="{0E69FD50-F033-467A-916D-8BC4A82BBE78}" destId="{8E5479D3-6365-414D-8D83-1AF889A1ED7B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{E2D84963-ADB5-4331-B9A3-FC498E701BF6}" type="presParOf" srcId="{0E69FD50-F033-467A-916D-8BC4A82BBE78}" destId="{1F5019E3-0698-443A-903E-BDACC2DB220F}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{A157C1CB-31F9-4DBB-BB30-0508944E9642}" type="presParOf" srcId="{1F5019E3-0698-443A-903E-BDACC2DB220F}" destId="{3BC82133-FA78-4485-B07A-9891FC620252}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{86E03716-E0EA-44B9-B88D-C2B47C34E370}" type="presParOf" srcId="{3BC82133-FA78-4485-B07A-9891FC620252}" destId="{39F25024-737A-44B1-BB3A-23B27A7666B4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{4F2B737A-306D-4DDC-B25C-3834D35AAFBD}" type="presParOf" srcId="{3BC82133-FA78-4485-B07A-9891FC620252}" destId="{08DB4AF9-8E42-40AA-84E5-CADFA71299D7}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{C3B08893-F83C-49B6-BBB5-1D28E45F8D70}" type="presParOf" srcId="{1F5019E3-0698-443A-903E-BDACC2DB220F}" destId="{0E19289A-B973-47ED-9615-375DCE2310F1}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{D600DF8A-D3F6-4593-BB20-7DBC06EF5B06}" type="presParOf" srcId="{0E19289A-B973-47ED-9615-375DCE2310F1}" destId="{25B82283-2ED9-4A56-AF93-B32A3D3DEEEC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{47E2DC48-BA3E-402E-B659-FE770F569BB3}" type="presParOf" srcId="{0E19289A-B973-47ED-9615-375DCE2310F1}" destId="{7309439D-744A-40AB-8FBE-AC0FCB0BF5EB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{0038A1EC-969F-49A9-84B0-B0016693B9BE}" type="presParOf" srcId="{7309439D-744A-40AB-8FBE-AC0FCB0BF5EB}" destId="{6BD14D70-61F5-4AF3-9DCC-25DBEB89BAB7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{6D0F7012-2FAC-4BBA-9E9C-F55410D16230}" type="presParOf" srcId="{6BD14D70-61F5-4AF3-9DCC-25DBEB89BAB7}" destId="{AAF151B6-8F38-4316-93CE-21EBF0ACEE82}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{2B074B9F-2D2E-4535-9FD5-46868429011D}" type="presParOf" srcId="{6BD14D70-61F5-4AF3-9DCC-25DBEB89BAB7}" destId="{91FA7B8D-26D1-4173-8A38-13ACD0E6A69F}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{7F2EE4D0-962A-4D77-8536-5FEBE8515DAB}" type="presParOf" srcId="{7309439D-744A-40AB-8FBE-AC0FCB0BF5EB}" destId="{4C0F25CD-5753-4CF0-B25B-934C0ED3B4DF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{B6A8E1A9-B6B8-4518-979D-EA296FDC0E29}" type="presParOf" srcId="{4C0F25CD-5753-4CF0-B25B-934C0ED3B4DF}" destId="{06E881C7-2214-4DD9-A8FC-15EFFF590781}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{77B8734D-D37C-4DFF-9546-39EA74C99192}" type="presParOf" srcId="{4C0F25CD-5753-4CF0-B25B-934C0ED3B4DF}" destId="{0C02C0C3-1FAA-4666-9429-EF495C95D2E2}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{F7E18271-EE3C-4D70-809D-EDACAD6D7552}" type="presParOf" srcId="{0C02C0C3-1FAA-4666-9429-EF495C95D2E2}" destId="{4DD4D383-1BA6-4B1B-BB88-E21B6C9B2734}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{F66C1708-7735-4AF9-834C-195CA206E6AB}" type="presParOf" srcId="{4DD4D383-1BA6-4B1B-BB88-E21B6C9B2734}" destId="{A221C521-3732-4122-80B2-72F95E4A4347}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{640289C7-1E01-46D8-8ADA-1F3BBCBFE333}" type="presParOf" srcId="{4DD4D383-1BA6-4B1B-BB88-E21B6C9B2734}" destId="{20298533-A1FF-48CF-87A4-A217BB5F1553}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{2CBB110E-ADE8-43A3-8958-C36A7F8B3BA9}" type="presParOf" srcId="{0C02C0C3-1FAA-4666-9429-EF495C95D2E2}" destId="{43A37921-4CDB-4579-A5D9-95E0715F28BA}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{80C2524D-5BDB-4E86-83E3-C611AFBD43D8}" type="presParOf" srcId="{0C02C0C3-1FAA-4666-9429-EF495C95D2E2}" destId="{43D5ED6E-E128-421C-AF2E-0AE57DAE4FFD}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{3D521E02-4548-44D6-B13D-ADE808BFEA6F}" type="presParOf" srcId="{7309439D-744A-40AB-8FBE-AC0FCB0BF5EB}" destId="{5E3F6685-541C-4AE9-B225-AAA7B5B367C6}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{B0A7E474-77E7-43C9-9F87-33191E7D7A0D}" type="presParOf" srcId="{1F5019E3-0698-443A-903E-BDACC2DB220F}" destId="{CBF65D71-506B-42E8-9CA3-9914436297FB}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{F1149292-7419-4595-B866-2A38EEBC0BCB}" type="presParOf" srcId="{92318C9B-99C9-4C0C-A69F-834EDF0FDA68}" destId="{614049B3-FF95-482E-869C-EE264EAC39F9}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{AB65F69B-8925-47B7-86FC-508E9F8813E9}" type="presParOf" srcId="{84521016-5258-473E-B386-5EB05AF5C2FE}" destId="{742FF903-A5B1-47E6-A501-293D9E49AB65}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{647504D8-EDF1-4442-8714-2B7430C2C3F6}" type="presParOf" srcId="{247EA587-41D5-47C8-9FD0-BD54DD9B88DE}" destId="{4AEAFF16-434E-498E-8AC0-03EB6A2A193C}" srcOrd="6" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{D44DFDA3-AF5B-4557-9D07-979ED2010E22}" type="presParOf" srcId="{247EA587-41D5-47C8-9FD0-BD54DD9B88DE}" destId="{F4457B89-DDBD-45AB-9C65-946A8D1C04B8}" srcOrd="7" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{0506CE55-01CB-4D6A-B2EB-AB29614A22DF}" type="presParOf" srcId="{F4457B89-DDBD-45AB-9C65-946A8D1C04B8}" destId="{AC587F69-423E-4083-8378-CE6F4290139D}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{8E23F017-B3B2-4DDE-919A-ADC144562573}" type="presParOf" srcId="{AC587F69-423E-4083-8378-CE6F4290139D}" destId="{7D04ED8D-D666-42D8-A91E-BEA90EB6FFCC}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{F1CEE6F1-FBB6-48D8-B2CB-8B58C20FDDE5}" type="presParOf" srcId="{AC587F69-423E-4083-8378-CE6F4290139D}" destId="{25733F2D-FB66-4D18-A7DA-25A921ECAE47}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{36314039-4DAC-4F87-A8DA-E27C681FE282}" type="presParOf" srcId="{F4457B89-DDBD-45AB-9C65-946A8D1C04B8}" destId="{D514CA09-C9A3-44CF-9520-958AA582B9D8}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{159F249D-47C8-439C-85DB-F781658B42D7}" type="presParOf" srcId="{D514CA09-C9A3-44CF-9520-958AA582B9D8}" destId="{5E8B2F6D-CA8C-4C9A-9EDE-F43ABFDA2002}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{2C9F4705-150A-47F3-8EA6-A3B26F7F7BE9}" type="presParOf" srcId="{D514CA09-C9A3-44CF-9520-958AA582B9D8}" destId="{DEB99678-05D3-4662-92A3-EB4764668F82}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{B09FD6F4-78F3-4145-8693-38BF6468BC9E}" type="presParOf" srcId="{DEB99678-05D3-4662-92A3-EB4764668F82}" destId="{DD97C8F1-84BD-4799-A5EE-212546A2C78A}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{DFC5F9B4-9434-4F98-A7A3-75083808C476}" type="presParOf" srcId="{DD97C8F1-84BD-4799-A5EE-212546A2C78A}" destId="{49F3895F-902D-46B2-8605-BA7A88FB922E}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{115E82F4-A346-45AE-B431-95D5380F205A}" type="presParOf" srcId="{DD97C8F1-84BD-4799-A5EE-212546A2C78A}" destId="{0EBE7715-5B85-4573-8B6D-A2A2B7CD4578}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{97DB9717-9272-4D4D-9FD3-4B1A02A32C94}" type="presParOf" srcId="{DEB99678-05D3-4662-92A3-EB4764668F82}" destId="{90DE45EC-AA34-4331-8324-9E6F24E056CB}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{B5967F07-B419-4B20-AACB-21C7AF4599B1}" type="presParOf" srcId="{90DE45EC-AA34-4331-8324-9E6F24E056CB}" destId="{BEB14FCE-D34F-4105-8F31-9A01202CA961}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{48FA3ADD-931C-4AE4-9C2F-E171C6562C9F}" type="presParOf" srcId="{90DE45EC-AA34-4331-8324-9E6F24E056CB}" destId="{BDFB353E-C986-4814-AA4A-4EA05DBD672D}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{9929ECF0-763E-4E38-9B90-808DAAEFA832}" type="presParOf" srcId="{BDFB353E-C986-4814-AA4A-4EA05DBD672D}" destId="{F9DAE32A-986C-402E-8B6B-4B27D4FE81A3}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{43C3EB9C-6AC8-4B8D-B4CF-818E32D85036}" type="presParOf" srcId="{F9DAE32A-986C-402E-8B6B-4B27D4FE81A3}" destId="{0D8D4247-4AE1-4DBA-BD28-324379441001}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{AC2C2322-31F7-4149-954A-3479B6B8BF5B}" type="presParOf" srcId="{F9DAE32A-986C-402E-8B6B-4B27D4FE81A3}" destId="{950CD8C1-4C17-4AE9-A4EF-40A90E8D0490}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{A4D29AA1-4DEB-416C-A9E2-28476FA01F5B}" type="presParOf" srcId="{BDFB353E-C986-4814-AA4A-4EA05DBD672D}" destId="{DDB55D10-4E45-4EA8-9AA0-12BBF87FF029}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{402798D8-AA4C-402C-B213-1A6AFD7B0A82}" type="presParOf" srcId="{DDB55D10-4E45-4EA8-9AA0-12BBF87FF029}" destId="{A16B86A5-5769-4D5B-BD77-EC79E60F04F7}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{7750E66B-3F0A-4ECF-885D-28C90F035999}" type="presParOf" srcId="{DDB55D10-4E45-4EA8-9AA0-12BBF87FF029}" destId="{8F3E557F-331E-46E0-B220-83F0952A3F8E}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{BF7A1657-DD86-4512-872C-2CBABAF27F5D}" type="presParOf" srcId="{8F3E557F-331E-46E0-B220-83F0952A3F8E}" destId="{C8E8778E-1FDF-46FC-94A8-88620A906C06}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{1BFD8D42-2077-471B-8B04-A8E5D0F01ED9}" type="presParOf" srcId="{C8E8778E-1FDF-46FC-94A8-88620A906C06}" destId="{3F37AB66-5D37-4AC8-A2C4-53A8EC053CDB}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{FAF54A10-6545-4782-A833-1D17B0CF7FB3}" type="presParOf" srcId="{C8E8778E-1FDF-46FC-94A8-88620A906C06}" destId="{F9798A68-03D9-4C8B-BF4F-6CEDD63413DE}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{B36F3920-D984-4C26-94BD-678A7D566928}" type="presParOf" srcId="{8F3E557F-331E-46E0-B220-83F0952A3F8E}" destId="{EFF17D4F-4387-40B1-95E8-29CB667DF3FF}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{4C58349A-1AD9-41A6-AC64-6C0CDE9E48E7}" type="presParOf" srcId="{8F3E557F-331E-46E0-B220-83F0952A3F8E}" destId="{5864D1AD-5631-4040-889B-95F62C53A57B}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{5C4352F7-F1EC-4C02-8E41-95364A1FBDD6}" type="presParOf" srcId="{BDFB353E-C986-4814-AA4A-4EA05DBD672D}" destId="{8474F743-4A6B-44F4-B2BA-004EDD980FBC}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{78DFED25-232A-498F-B89A-4154E5613541}" type="presParOf" srcId="{DEB99678-05D3-4662-92A3-EB4764668F82}" destId="{7913D14B-3356-4297-A869-F0C7EBD52C18}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
+    <dgm:cxn modelId="{2D9C241C-8D6C-448C-9364-CB8F8F9349D6}" type="presParOf" srcId="{F4457B89-DDBD-45AB-9C65-946A8D1C04B8}" destId="{44B9735F-015B-4562-81BB-CDEF27EFD941}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{534F27A4-D40F-4721-A31E-4BDACAC2391E}" type="presParOf" srcId="{820FF859-5DA6-47E3-A024-314578A560A7}" destId="{31662D55-8D8D-4C3C-BD81-0CE4E534AFDE}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
     <dgm:cxn modelId="{9139F193-8560-465A-9EAE-B95CC5E5569E}" type="presParOf" srcId="{6527119A-CA73-48C0-B50A-55C4A8A2B8A1}" destId="{7C470DE9-9058-44EE-9919-F3BDF73D34C8}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2009/3/layout/HorizontalOrganizationChart"/>
   </dgm:cxnLst>
@@ -1972,15 +3964,177 @@
       <dsp:cNvGrpSpPr/>
     </dsp:nvGrpSpPr>
     <dsp:grpSpPr/>
-    <dsp:sp modelId="{D9D3E950-2D7F-4FCA-B3F3-527543935621}">
+    <dsp:sp modelId="{A16B86A5-5769-4D5B-BD77-EC79E60F04F7}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4214451" y="3605212"/>
-          <a:ext cx="564047" cy="1212703"/>
+          <a:off x="8126787" y="5838635"/>
+          <a:ext cx="319056" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="319056" y="45720"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{BEB14FCE-D34F-4105-8F31-9A01202CA961}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6212450" y="5838635"/>
+          <a:ext cx="319056" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="319056" y="45720"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{5E8B2F6D-CA8C-4C9A-9EDE-F43ABFDA2002}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4298113" y="5838635"/>
+          <a:ext cx="319056" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="319056" y="45720"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{4AEAFF16-434E-498E-8AC0-03EB6A2A193C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2383776" y="3740697"/>
+          <a:ext cx="319056" cy="2143658"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1994,13 +4148,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="282023" y="0"/>
+                <a:pt x="159528" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="282023" y="1212703"/>
+                <a:pt x="159528" y="2143658"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="564047" y="1212703"/>
+                <a:pt x="319056" y="2143658"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2032,15 +4186,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{78177F2E-AD9E-4A65-83F3-5F5357869156}">
+    <dsp:sp modelId="{06E881C7-2214-4DD9-A8FC-15EFFF590781}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7598738" y="3559492"/>
-          <a:ext cx="564047" cy="91440"/>
+          <a:off x="8914298" y="5152664"/>
+          <a:ext cx="319056" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2054,7 +4208,7 @@
                 <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="564047" y="45720"/>
+                <a:pt x="319056" y="45720"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2086,15 +4240,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{5EF519EB-1802-4A4D-8D27-D2FF707A0802}">
+    <dsp:sp modelId="{25B82283-2ED9-4A56-AF93-B32A3D3DEEEC}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4214451" y="3559492"/>
-          <a:ext cx="564047" cy="91440"/>
+          <a:off x="6999961" y="5152664"/>
+          <a:ext cx="319056" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2108,7 +4262,349 @@
                 <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="564047" y="45720"/>
+                <a:pt x="319056" y="45720"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{8E5479D3-6365-414D-8D83-1AF889A1ED7B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5085624" y="4855399"/>
+          <a:ext cx="319056" cy="342985"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="159528" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="159528" y="342985"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="319056" y="342985"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{CCE2EC36-F7D9-4A57-8038-7183AD7CC22D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8914298" y="4466694"/>
+          <a:ext cx="319056" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="319056" y="45720"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{91603FE8-5AA5-4A12-9803-418FD270BD4F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6999961" y="4466694"/>
+          <a:ext cx="319056" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="319056" y="45720"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{DD6B7609-EC73-4682-A39F-3F0CEDC61B72}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5085624" y="4512414"/>
+          <a:ext cx="319056" cy="342985"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="342985"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="159528" y="342985"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="159528" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="319056" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{E86CB141-D692-4609-9934-2848921A7000}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4298113" y="4809679"/>
+          <a:ext cx="319056" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="319056" y="45720"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{D14210F5-30C8-48BB-84DB-BA975CC146C4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2383776" y="3740697"/>
+          <a:ext cx="319056" cy="1114702"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="159528" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="159528" y="1114702"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="319056" y="1114702"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2140,15 +4636,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{C3BD116C-1817-4A53-8EDB-CDE93F2F3045}">
+    <dsp:sp modelId="{C4052DBF-2137-43AC-93A3-BD204E667926}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="7598738" y="2346789"/>
-          <a:ext cx="564047" cy="91440"/>
+          <a:off x="8914298" y="3780723"/>
+          <a:ext cx="319056" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2162,7 +4658,7 @@
                 <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="564047" y="45720"/>
+                <a:pt x="319056" y="45720"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2194,15 +4690,15 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{209DE96E-1015-40B1-BA18-56D28784FF3D}">
+    <dsp:sp modelId="{1A84F7CD-9CB3-4B64-84E8-08EFCAC3BDAC}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4214451" y="2392509"/>
-          <a:ext cx="564047" cy="1212703"/>
+          <a:off x="6999961" y="3483458"/>
+          <a:ext cx="319056" cy="342985"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2213,16 +4709,298 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="0" y="1212703"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="282023" y="1212703"/>
+                <a:pt x="159528" y="0"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="282023" y="0"/>
+                <a:pt x="159528" y="342985"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="564047" y="0"/>
+                <a:pt x="319056" y="342985"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{179EE195-1920-48C5-B1CA-55D03C134608}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8914298" y="3094752"/>
+          <a:ext cx="319056" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="319056" y="45720"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{8ABDE085-19CC-4E6F-9BAC-337B08F0615B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6999961" y="3140472"/>
+          <a:ext cx="319056" cy="342985"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="342985"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="159528" y="342985"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="159528" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="319056" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{B60AA2C4-9DA1-4CD4-B2A3-C1DE9E1BCB6B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6212450" y="3437738"/>
+          <a:ext cx="319056" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="319056" y="45720"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{78177F2E-AD9E-4A65-83F3-5F5357869156}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4298113" y="3437738"/>
+          <a:ext cx="319056" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="319056" y="45720"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{5EF519EB-1802-4A4D-8D27-D2FF707A0802}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2383776" y="3483458"/>
+          <a:ext cx="319056" cy="257239"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="257239"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="159528" y="257239"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="159528" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="319056" y="0"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2254,15 +5032,195 @@
         <a:fontRef idx="minor"/>
       </dsp:style>
     </dsp:sp>
-    <dsp:sp modelId="{23F433D1-EE42-4D43-9DC1-0931A6C940F8}">
+    <dsp:sp modelId="{76FA466F-C5B0-4A10-804C-FFE56D7A1302}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2822239" y="3559492"/>
-          <a:ext cx="564047" cy="91440"/>
+          <a:off x="9498250" y="2111516"/>
+          <a:ext cx="319056" cy="342985"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="159528" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="159528" y="342985"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="319056" y="342985"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{A32F1A5C-2163-4EB3-8994-D50D92C78FCE}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9498250" y="1768531"/>
+          <a:ext cx="319056" cy="342985"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="342985"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="159528" y="342985"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="159528" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="319056" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{46043C73-4888-4602-8DCD-83A8473312AC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7583913" y="1597038"/>
+          <a:ext cx="319056" cy="514478"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="159528" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="159528" y="514478"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="319056" y="514478"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{0A0201AE-DC6E-4496-BC04-9B70273029D7}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9498250" y="1036840"/>
+          <a:ext cx="319056" cy="91440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2276,7 +5234,289 @@
                 <a:pt x="0" y="45720"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="564047" y="45720"/>
+                <a:pt x="319056" y="45720"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{78FA4EB2-C740-4BBC-9FFC-76050AAFE025}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7583913" y="1082560"/>
+          <a:ext cx="319056" cy="514478"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="514478"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="159528" y="514478"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="159528" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="319056" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{C21B5B44-6117-4EBB-AF38-323E29F5036C}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6796403" y="1551318"/>
+          <a:ext cx="319056" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="319056" y="45720"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{C3BD116C-1817-4A53-8EDB-CDE93F2F3045}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4298113" y="1551318"/>
+          <a:ext cx="319056" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="319056" y="45720"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{209DE96E-1015-40B1-BA18-56D28784FF3D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2383776" y="1597038"/>
+          <a:ext cx="319056" cy="2143658"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="2143658"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="159528" y="2143658"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="159528" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="319056" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:hueOff val="0"/>
+              <a:satOff val="0"/>
+              <a:lumOff val="0"/>
+              <a:alphaOff val="0"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{23F433D1-EE42-4D43-9DC1-0931A6C940F8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="1596266" y="3694977"/>
+          <a:ext cx="319056" cy="91440"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst>
+            <a:path>
+              <a:moveTo>
+                <a:pt x="0" y="45720"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="319056" y="45720"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2315,8 +5555,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2000" y="3175125"/>
-          <a:ext cx="2820239" cy="860173"/>
+          <a:off x="985" y="3497416"/>
+          <a:ext cx="1595280" cy="486560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2389,12 +5629,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="17145" rIns="17145" bIns="17145" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1200150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2407,14 +5647,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2700" kern="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
             <a:t>定着器から発煙（紙が焦げる）</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2000" y="3175125"/>
-        <a:ext cx="2820239" cy="860173"/>
+        <a:off x="985" y="3497416"/>
+        <a:ext cx="1595280" cy="486560"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{A02EFDC6-A32A-47BD-98D7-FD2FDF962EC7}">
@@ -2424,8 +5664,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="3386287" y="3175125"/>
-          <a:ext cx="828163" cy="860173"/>
+          <a:off x="1915322" y="3497416"/>
+          <a:ext cx="468454" cy="486560"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOnlineStorage">
           <a:avLst/>
@@ -2498,12 +5738,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="17145" rIns="17145" bIns="17145" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1200150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2515,12 +5755,12 @@
             </a:spcAft>
             <a:buNone/>
           </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2700" kern="1200"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3524314" y="3175125"/>
-        <a:ext cx="552109" cy="860173"/>
+        <a:off x="1993398" y="3497416"/>
+        <a:ext cx="312302" cy="486560"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{86EF3270-6B01-4E90-8816-870DDBBE0DDC}">
@@ -2530,8 +5770,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4778498" y="1962422"/>
-          <a:ext cx="2820239" cy="860173"/>
+          <a:off x="2702832" y="1353758"/>
+          <a:ext cx="1595280" cy="486560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2604,12 +5844,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="17145" rIns="17145" bIns="17145" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1200150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2622,14 +5862,14 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2700" kern="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
             <a:t>サーミスタが故障</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4778498" y="1962422"/>
-        <a:ext cx="2820239" cy="860173"/>
+        <a:off x="2702832" y="1353758"/>
+        <a:ext cx="1595280" cy="486560"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{C7986F6E-1551-4615-8D4F-0F7A442E779A}">
@@ -2639,8 +5879,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8162786" y="1962422"/>
-          <a:ext cx="3852588" cy="860173"/>
+          <a:off x="4617169" y="1353758"/>
+          <a:ext cx="2179233" cy="486560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2713,12 +5953,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="17145" rIns="17145" bIns="17145" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1200150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2731,14 +5971,665 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2700" kern="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
             <a:t>正確な温度が読めない</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8162786" y="1962422"/>
-        <a:ext cx="3852588" cy="860173"/>
+        <a:off x="4617169" y="1353758"/>
+        <a:ext cx="2179233" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1699E2A8-5A9E-47AC-85DF-6652FE6F8577}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7115459" y="1353758"/>
+          <a:ext cx="468454" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7193535" y="1353758"/>
+        <a:ext cx="312302" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{EA9CF248-1326-4D78-93B7-B6131A505245}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7902969" y="839279"/>
+          <a:ext cx="1595280" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>コネクタのゆるみ</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7902969" y="839279"/>
+        <a:ext cx="1595280" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{1EE4D16C-87AD-4009-B8DD-9C2E06E7DCB6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9817306" y="839279"/>
+          <a:ext cx="1595280" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>嵌合チェック</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9817306" y="839279"/>
+        <a:ext cx="1595280" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{0EC762FC-3818-4D5C-83FA-2C288DEC922A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7902969" y="1868236"/>
+          <a:ext cx="1595280" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>配線が切れた</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7902969" y="1868236"/>
+        <a:ext cx="1595280" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7C91DE38-9297-4511-A949-19D838A226D0}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9817306" y="1525250"/>
+          <a:ext cx="1595280" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>ハーネスの取り回し改善</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9817306" y="1525250"/>
+        <a:ext cx="1595280" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{AE0D25CC-4F1E-419E-A353-038B4273A6E1}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9817306" y="2211221"/>
+          <a:ext cx="1595280" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>断線検知ソフトの導入</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9817306" y="2211221"/>
+        <a:ext cx="1595280" cy="486560"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{D88FF544-3D4E-43F8-B304-3B7FFB9916E6}">
@@ -2748,8 +6639,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4778498" y="3175125"/>
-          <a:ext cx="2820239" cy="860173"/>
+          <a:off x="2702832" y="3240177"/>
+          <a:ext cx="1595280" cy="486560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2822,12 +6713,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="17145" rIns="17145" bIns="17145" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1200150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2840,18 +6731,18 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="2700" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="en-US" sz="1500" kern="1200"/>
             <a:t>Q204</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2700" kern="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
             <a:t>が故障</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4778498" y="3175125"/>
-        <a:ext cx="2820239" cy="860173"/>
+        <a:off x="2702832" y="3240177"/>
+        <a:ext cx="1595280" cy="486560"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1BDA86ED-1897-4B23-9AC8-2E1653736DF6}">
@@ -2861,8 +6752,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="8162786" y="3175125"/>
-          <a:ext cx="2820239" cy="860173"/>
+          <a:off x="4617169" y="3240177"/>
+          <a:ext cx="1595280" cy="486560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2935,12 +6826,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="17145" rIns="17145" bIns="17145" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1200150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -2953,25 +6844,567 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2700" kern="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
             <a:t>半田不良</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="8162786" y="3175125"/>
-        <a:ext cx="2820239" cy="860173"/>
+        <a:off x="4617169" y="3240177"/>
+        <a:ext cx="1595280" cy="486560"/>
       </dsp:txXfrm>
     </dsp:sp>
-    <dsp:sp modelId="{7F19217E-24B3-4627-9072-890E7C39ABC3}">
+    <dsp:sp modelId="{B6FA964F-3D30-4FD3-968F-24D5819581E3}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6531506" y="3240177"/>
+          <a:ext cx="468454" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6609582" y="3240177"/>
+        <a:ext cx="312302" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{949DB9AE-6468-4D7F-87A8-CAF43BE3CE1A}">
       <dsp:nvSpPr>
         <dsp:cNvPr id="0" name=""/>
         <dsp:cNvSpPr/>
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4778498" y="4387829"/>
-          <a:ext cx="2820239" cy="860173"/>
+          <a:off x="7319017" y="2897192"/>
+          <a:ext cx="1595280" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>半田ひげ</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7319017" y="2897192"/>
+        <a:ext cx="1595280" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{73C82DDF-A03E-4FFD-B7EC-E1E2865E713A}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9233354" y="2897192"/>
+          <a:ext cx="1595280" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>部品間の隙間に余裕をもたせる</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9233354" y="2897192"/>
+        <a:ext cx="1595280" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{6238D206-D2C6-4CE5-ABD9-2EE4394F3F04}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7319017" y="3583163"/>
+          <a:ext cx="1595280" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>基盤汚染</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7319017" y="3583163"/>
+        <a:ext cx="1595280" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F618EC52-C31D-44C8-BCA5-8EE22083699F}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9233354" y="3583163"/>
+          <a:ext cx="1595280" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>自動光学検査</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9233354" y="3583163"/>
+        <a:ext cx="1595280" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{F9A45FA4-F784-4208-A7DD-73336ED69A23}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2702832" y="4612119"/>
+          <a:ext cx="1595280" cy="486560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3044,12 +7477,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="17145" tIns="17145" rIns="17145" bIns="17145" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="1200150">
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -3062,26 +7495,1222 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2700" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500" kern="1200"/>
             <a:t>PC</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2700" kern="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
             <a:t>、</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2700" kern="1200"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1500" kern="1200"/>
             <a:t>TRC</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2700" kern="1200"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
             <a:t>の故障</a:t>
           </a:r>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4778498" y="4387829"/>
-        <a:ext cx="2820239" cy="860173"/>
+        <a:off x="2702832" y="4612119"/>
+        <a:ext cx="1595280" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{BA6FAB83-0215-476D-8AC7-A769045344E0}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4617169" y="4612119"/>
+          <a:ext cx="468454" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOnlineStorage">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4695245" y="4612119"/>
+        <a:ext cx="312302" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{AD6CB5E3-57B9-4F99-B7AB-3BFD9AE1B26D}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5404680" y="4269133"/>
+          <a:ext cx="1595280" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>ソフトの不具合</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5404680" y="4269133"/>
+        <a:ext cx="1595280" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{41FB21E8-11C1-4A21-B02D-5C6C7711348B}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7319017" y="4269133"/>
+          <a:ext cx="1595280" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>ヒータ制御のミス</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7319017" y="4269133"/>
+        <a:ext cx="1595280" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{C7C7924E-4E6A-4FA0-A458-EC98FAA31C5E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9233354" y="4269133"/>
+          <a:ext cx="1595280" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>コードの見直し</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9233354" y="4269133"/>
+        <a:ext cx="1595280" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{39F25024-737A-44B1-BB3A-23B27A7666B4}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="5404680" y="4955104"/>
+          <a:ext cx="1595280" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>リレーの接点癒着</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="5404680" y="4955104"/>
+        <a:ext cx="1595280" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{AAF151B6-8F38-4316-93CE-21EBF0ACEE82}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="7319017" y="4955104"/>
+          <a:ext cx="1595280" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>突入電流・アーク</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="7319017" y="4955104"/>
+        <a:ext cx="1595280" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{A221C521-3732-4122-80B2-72F95E4A4347}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="9233354" y="4955104"/>
+          <a:ext cx="1595280" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>リレーの定格アップ</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="9233354" y="4955104"/>
+        <a:ext cx="1595280" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{7D04ED8D-D666-42D8-A91E-BEA90EB6FFCC}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2702832" y="5641075"/>
+          <a:ext cx="1595280" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>サーマルカットアウト不良</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2702832" y="5641075"/>
+        <a:ext cx="1595280" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{49F3895F-902D-46B2-8605-BA7A88FB922E}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4617169" y="5641075"/>
+          <a:ext cx="1595280" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>定格過大・溶着</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4617169" y="5641075"/>
+        <a:ext cx="1595280" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{0D8D4247-4AE1-4DBA-BD28-324379441001}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="6531506" y="5641075"/>
+          <a:ext cx="1595280" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>品質不良</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="6531506" y="5641075"/>
+        <a:ext cx="1595280" cy="486560"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{3F37AB66-5D37-4AC8-A2C4-53A8EC053CDB}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="8445843" y="5641075"/>
+          <a:ext cx="1595280" cy="486560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent4">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="dkEdge">
+          <a:bevelT w="8200" h="38100"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="9525" tIns="9525" rIns="9525" bIns="9525" numCol="1" spcCol="1270" anchor="ctr" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" defTabSz="666750">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1500" kern="1200"/>
+            <a:t>入荷検査の徹底</a:t>
+          </a:r>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="8445843" y="5641075"/>
+        <a:ext cx="1595280" cy="486560"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -5391,116 +11020,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8172450" y="2971800"/>
-          <a:ext cx="613410" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8172450" y="3962400"/>
-          <a:ext cx="613410" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -5612,9 +11131,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>8210</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -5635,338 +11154,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10896600" y="2971800"/>
-          <a:ext cx="613410" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線コネクタ 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10896600" y="3962400"/>
-          <a:ext cx="613410" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線コネクタ 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10896600" y="4962525"/>
-          <a:ext cx="613410" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線コネクタ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10881360" y="5280660"/>
-          <a:ext cx="609600" cy="1005840"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線コネクタ 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2720340" y="1005840"/>
-          <a:ext cx="609600" cy="1005840"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線コネクタ 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2720340" y="1005840"/>
-          <a:ext cx="609600" cy="3017520"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5440680" y="2011680"/>
-          <a:ext cx="609600" cy="1013460"/>
+          <a:off x="11035862" y="2299138"/>
+          <a:ext cx="644284" cy="1009979"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5997,64 +11186,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>243840</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直線コネクタ 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8161020" y="4015740"/>
-          <a:ext cx="609600" cy="1013460"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>16422</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>24633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -6075,8 +11209,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8734425" y="2228850"/>
-          <a:ext cx="689610" cy="0"/>
+          <a:off x="8202996" y="1297371"/>
+          <a:ext cx="636073" cy="993557"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6216,23 +11350,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16422</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>254547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="直線コネクタ 27">
+        <xdr:cNvPr id="11" name="直線コネクタ 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC9C564-3646-476A-AA6E-0D72FAACD37F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D486F82-9F09-404F-B3C3-FB8DFCA00371}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6240,8 +11374,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5705475" y="2228850"/>
-          <a:ext cx="689610" cy="0"/>
+          <a:off x="2520841" y="1272737"/>
+          <a:ext cx="636072" cy="3054570"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6284,10 +11418,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直線コネクタ 28">
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DC1AABE-64E1-4448-B483-2F5DCF52B038}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83EC63B1-6AF6-4F45-92DF-B0523DBEF0FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6295,8 +11429,338 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5705475" y="4210050"/>
-          <a:ext cx="689610" cy="0"/>
+          <a:off x="5345497" y="1272738"/>
+          <a:ext cx="652494" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07AFA87F-78F5-462D-AABB-D7AF8EBF5278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5345497" y="4327307"/>
+          <a:ext cx="652494" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16422</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>8210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6F4232-464D-4879-943E-6BE616745888}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8202996" y="4335517"/>
+          <a:ext cx="636073" cy="1009980"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直線コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0C85DA-7D26-4315-8977-61C383536AE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11027652" y="4327307"/>
+          <a:ext cx="648684" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4377846C-0D62-4208-A4BB-254587D78821}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11027652" y="5345497"/>
+          <a:ext cx="648684" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{795C1C19-AEFF-4F4C-B8E9-5A7DB248A6EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5345497" y="4327307"/>
+          <a:ext cx="652494" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E385EC-D729-4846-AE06-972148165A18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5345496" y="6544332"/>
+          <a:ext cx="652495" cy="1075668"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6327,22 +11791,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5715</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>16422</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>229914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>644283</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>24634</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線コネクタ 30">
+        <xdr:cNvPr id="45" name="直線コネクタ 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C1CB335-4D88-48EF-8E0A-E3B29B4F136F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04EC7222-00E1-4C77-95DA-5402C37AE525}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6350,8 +11814,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2682240" y="1253490"/>
-          <a:ext cx="699135" cy="4690110"/>
+          <a:off x="2520841" y="1280948"/>
+          <a:ext cx="627861" cy="5312652"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -6379,114 +11843,444 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4893391" cy="392415"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線コネクタ 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDC8FE7A-16C7-3F3E-E851-2CB2A2B8A502}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16314EC6-46C2-4C22-A18D-E09AADD833B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676275" y="6505575"/>
-          <a:ext cx="4893391" cy="392415"/>
+          <a:off x="8186574" y="4466897"/>
+          <a:ext cx="652495" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>挿入→</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
-            <a:t>SmartArt</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
-            <a:t>→階層構造→水平方向の組織図</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:cxnSp>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>239377</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>105456</xdr:rowOff>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="図 35">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線コネクタ 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B662C67E-8590-7832-0362-3D387298A467}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2C03E6-B677-4174-B47A-4AD74E68BD3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="6886575"/>
-          <a:ext cx="8973802" cy="4877481"/>
+          <a:off x="8186574" y="4466897"/>
+          <a:ext cx="652495" cy="0"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24542EBA-FB48-452D-B84B-2A39D5E106A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11027652" y="6568966"/>
+          <a:ext cx="648684" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ED9E3F2-6BDD-4830-81D0-73509E1A7958}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11027652" y="7620000"/>
+          <a:ext cx="648684" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>16422</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>246337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>644283</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>41058</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E15347D-5672-4A45-9263-15D6119E7785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2520841" y="1297371"/>
+          <a:ext cx="627861" cy="7414721"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="直線コネクタ 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A096570-1D94-4750-A708-8D140F131B2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5345497" y="6568966"/>
+          <a:ext cx="652494" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CEFE39D-4E66-443C-BB3A-56A1364EBA32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8186574" y="7620000"/>
+          <a:ext cx="652495" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直線コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F1C433-A400-4C2C-9A97-3555CB0D9FE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11027652" y="8671034"/>
+          <a:ext cx="648684" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6820,187 +12614,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J27"/>
+  <dimension ref="B3:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="58" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="20.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.3984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.73046875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.06640625" style="3"/>
+    <col min="4" max="4" width="30.73046875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.06640625" style="3"/>
+    <col min="6" max="6" width="30.73046875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.06640625" style="3"/>
+    <col min="8" max="8" width="30.73046875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9.06640625" style="3"/>
+    <col min="10" max="10" width="30.73046875" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="19.899999999999999" customHeight="1"/>
-    <row r="2" spans="2:10" ht="19.899999999999999" customHeight="1"/>
-    <row r="3" spans="2:10" ht="19.899999999999999" customHeight="1">
-      <c r="D3" s="1" t="s">
+    <row r="3" spans="2:10" ht="20.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:10" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="2:10" ht="20.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="J5" s="4"/>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="6" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="B6" s="9"/>
-      <c r="D6" s="11"/>
-      <c r="F6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="J6" s="5"/>
+    <row r="6" spans="2:10" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="2:10" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="B7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="J7" s="1"/>
+    <row r="7" spans="2:10" ht="20.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1"/>
-    <row r="9" spans="2:10" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="D9" s="6" t="s">
+    <row r="8" spans="2:10" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:10" ht="20.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="2"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="2:10" ht="20.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:10" ht="20.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="2:10" ht="20.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:10" ht="20.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="2"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="D10" s="7"/>
-      <c r="F10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="2:10" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="D11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1"/>
-    <row r="13" spans="2:10" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="F13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="F14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="2:10" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="F15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1"/>
-    <row r="17" spans="2:10" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="D17" s="6" t="s">
+      <c r="F17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="J17" s="4"/>
+      <c r="H17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="18" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="D18" s="7"/>
-      <c r="F18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="J18" s="5"/>
+    <row r="18" spans="2:10" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="9"/>
+      <c r="F18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="2:10" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="D19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="J19" s="1"/>
+    <row r="19" spans="2:10" ht="20.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:10" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:10" ht="20.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="20" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1"/>
-    <row r="21" spans="2:10" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="H21" s="2"/>
-      <c r="J21" s="4"/>
+    <row r="22" spans="2:10" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="2"/>
+      <c r="J22" s="10"/>
     </row>
-    <row r="22" spans="2:10" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="H22" s="3"/>
-      <c r="J22" s="5"/>
+    <row r="23" spans="2:10" ht="20.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:10" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:10" ht="20.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="23" spans="2:10" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="H23" s="1"/>
-      <c r="J23" s="1"/>
+    <row r="26" spans="2:10" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="9"/>
+      <c r="F26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="J26" s="10"/>
     </row>
-    <row r="24" spans="2:10" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="D24" s="6"/>
+    <row r="27" spans="2:10" ht="20.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
-    <row r="25" spans="2:10" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="D25" s="7"/>
-      <c r="J25" s="4"/>
+    <row r="28" spans="2:10" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:10" ht="20.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="26" spans="2:10" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
-      <c r="J26" s="5"/>
+    <row r="30" spans="2:10" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="J30" s="10"/>
     </row>
-    <row r="27" spans="2:10" ht="19.899999999999999" customHeight="1" thickTop="1">
-      <c r="B27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="J27" s="1"/>
+    <row r="31" spans="2:10" ht="20.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:10" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="4:10" ht="20.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
+    <row r="34" spans="4:10" ht="20.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="9"/>
+      <c r="F34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="4:10" ht="20.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D17:D18"/>
+  <mergeCells count="25">
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="J33:J34"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F13:F14"/>
     <mergeCell ref="F17:F18"/>
-    <mergeCell ref="J25:J26"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H13:H14"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="J5:J6"/>
@@ -7008,6 +12853,9 @@
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="J17:J18"/>
     <mergeCell ref="J21:J22"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7020,11 +12868,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95197BB3-E3FD-428A-9518-25526D161562}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA32" sqref="AA32"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="46" workbookViewId="0">
+      <selection activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7033,26 +12881,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a30a0a80-8a25-4a3e-88ce-4a4d852dc586" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="15719c8c-e97c-4fe8-8ead-ac6e16750e46">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B648B3B9C8467D4992FF6260A571CD0B" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="3e140d296e42396f7468790bd49198dc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="15719c8c-e97c-4fe8-8ead-ac6e16750e46" xmlns:ns3="a30a0a80-8a25-4a3e-88ce-4a4d852dc586" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f21dbb605f8ed8f0aed7e55ae3457b6f" ns2:_="" ns3:_="">
     <xsd:import namespace="15719c8c-e97c-4fe8-8ead-ac6e16750e46"/>
@@ -7247,14 +13075,60 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a30a0a80-8a25-4a3e-88ce-4a4d852dc586" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="15719c8c-e97c-4fe8-8ead-ac6e16750e46">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E8E01A1-9599-4828-AE77-664B8D8F0B17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD5A7FD-16FA-4647-B0A2-B9946131FAA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="15719c8c-e97c-4fe8-8ead-ac6e16750e46"/>
+    <ds:schemaRef ds:uri="a30a0a80-8a25-4a3e-88ce-4a4d852dc586"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00DCF27-DE22-4234-B202-6689B64574BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D00DCF27-DE22-4234-B202-6689B64574BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABD5A7FD-16FA-4647-B0A2-B9946131FAA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E8E01A1-9599-4828-AE77-664B8D8F0B17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a30a0a80-8a25-4a3e-88ce-4a4d852dc586"/>
+    <ds:schemaRef ds:uri="15719c8c-e97c-4fe8-8ead-ac6e16750e46"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>